--- a/results/comparaison/retardance_prism.xlsx
+++ b/results/comparaison/retardance_prism.xlsx
@@ -979,1232 +979,1685 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.2170207603253</v>
+        <v>20.15632724691064</v>
       </c>
       <c r="C2">
-        <v>10.1403753994012</v>
+        <v>5.027179092404891</v>
       </c>
       <c r="D2">
-        <v>11.10233170539316</v>
+        <v>4.778876971930711</v>
       </c>
       <c r="E2">
-        <v>11.2104362847163</v>
+        <v>17.03076421724449</v>
       </c>
       <c r="F2">
-        <v>9.296810518049735</v>
+        <v>8.498101466035866</v>
       </c>
       <c r="G2">
-        <v>11.17562617154021</v>
+        <v>8.981199487476589</v>
       </c>
       <c r="H2">
-        <v>16.71776184009365</v>
+        <v>4.279010023099826</v>
       </c>
       <c r="I2">
-        <v>5.538370158957466</v>
+        <v>14.9133260941459</v>
       </c>
       <c r="J2">
-        <v>7.035905457475873</v>
+        <v>9.933172164060556</v>
       </c>
       <c r="K2">
-        <v>11.7816357405574</v>
+        <v>9.068035767469382</v>
       </c>
       <c r="L2">
-        <v>6.229367816123466</v>
+        <v>7.715369424291301</v>
       </c>
       <c r="M2">
-        <v>8.68017408230542</v>
+        <v>11.77069764891583</v>
       </c>
       <c r="N2">
-        <v>10.83773681811947</v>
+        <v>16.65035706428298</v>
       </c>
       <c r="O2">
-        <v>23.61228974501979</v>
+        <v>5.216271576700375</v>
       </c>
       <c r="P2">
-        <v>11.24455171594854</v>
+        <v>6.712692775297993</v>
       </c>
       <c r="Q2">
-        <v>9.08104053382764</v>
+        <v>10.69601438910183</v>
       </c>
       <c r="R2">
-        <v>8.371775702404339</v>
+        <v>23.58772153194252</v>
       </c>
       <c r="S2">
-        <v>11.72719116302371</v>
+        <v>11.1451776863573</v>
       </c>
       <c r="T2">
-        <v>4.761196015624315</v>
+        <v>13.70571354922613</v>
       </c>
       <c r="U2">
-        <v>9.227798161536288</v>
+        <v>5.368395649481174</v>
       </c>
       <c r="V2">
-        <v>5.022747562567743</v>
+        <v>11.18691224558728</v>
       </c>
       <c r="W2">
-        <v>19.63385051916805</v>
+        <v>10.74225229602069</v>
       </c>
       <c r="X2">
-        <v>5.057823730000688</v>
+        <v>14.21151619194351</v>
       </c>
       <c r="Y2">
-        <v>8.145156087958286</v>
+        <v>10.69463968650384</v>
       </c>
       <c r="Z2">
-        <v>15.01292652476798</v>
+        <v>7.34230620649298</v>
       </c>
       <c r="AA2">
-        <v>6.492879867542353</v>
+        <v>9.996556635375628</v>
       </c>
       <c r="AB2">
-        <v>4.598705591452514</v>
+        <v>23.26588582918019</v>
       </c>
       <c r="AC2">
-        <v>8.847573878630506</v>
+        <v>3.929997838293318</v>
       </c>
       <c r="AD2">
-        <v>10.83158671176365</v>
+        <v>24.94670335779843</v>
       </c>
       <c r="AE2">
-        <v>4.946816368228246</v>
+        <v>5.007538854306844</v>
       </c>
       <c r="AF2">
-        <v>9.254456200571855</v>
+        <v>3.791887479700351</v>
       </c>
       <c r="AG2">
-        <v>10.09425005518975</v>
+        <v>8.25581869836768</v>
       </c>
       <c r="AH2">
-        <v>9.107888180002131</v>
+        <v>5.472517455199844</v>
       </c>
       <c r="AI2">
-        <v>5.492937278138988</v>
+        <v>6.738869962464312</v>
       </c>
       <c r="AJ2">
-        <v>8.270377897080596</v>
+        <v>12.51259066642259</v>
       </c>
       <c r="AK2">
-        <v>5.228251669231566</v>
+        <v>5.947792652794643</v>
       </c>
       <c r="AL2">
-        <v>12.32688325409535</v>
+        <v>9.395652221149088</v>
       </c>
       <c r="AM2">
-        <v>4.893551005692162</v>
+        <v>14.98284733892503</v>
       </c>
       <c r="AN2">
-        <v>25.38730516367998</v>
+        <v>5.845695667050567</v>
       </c>
       <c r="AO2">
-        <v>9.180559625379791</v>
+        <v>20.03753117486775</v>
       </c>
       <c r="AP2">
-        <v>5.512946383220199</v>
+        <v>6.603344137540608</v>
       </c>
       <c r="AQ2">
-        <v>6.962660710172633</v>
+        <v>6.330248201149725</v>
       </c>
       <c r="AR2">
-        <v>4.692949691075255</v>
+        <v>19.13019938663501</v>
       </c>
       <c r="AS2">
-        <v>23.40445083316997</v>
+        <v>3.322517971891729</v>
       </c>
       <c r="AT2">
-        <v>14.04892999288731</v>
+        <v>3.426847598822809</v>
       </c>
       <c r="AU2">
-        <v>21.49157012779846</v>
+        <v>5.434038220020031</v>
       </c>
       <c r="AV2">
-        <v>3.97806820478791</v>
+        <v>9.645660182363226</v>
       </c>
       <c r="AW2">
-        <v>12.98140956630465</v>
+        <v>5.558886799503311</v>
       </c>
       <c r="AX2">
-        <v>10.97683805712045</v>
+        <v>10.75439315994285</v>
       </c>
       <c r="AY2">
-        <v>4.712305172538632</v>
+        <v>7.384672782240273</v>
       </c>
       <c r="AZ2">
-        <v>6.648724862501968</v>
+        <v>5.219851365645274</v>
       </c>
       <c r="BA2">
-        <v>4.823686979137558</v>
+        <v>11.71633609747614</v>
       </c>
       <c r="BB2">
-        <v>11.3140852336258</v>
+        <v>5.140785075603233</v>
       </c>
       <c r="BC2">
-        <v>8.289192663945276</v>
+        <v>8.896349931347949</v>
       </c>
       <c r="BD2">
-        <v>3.846185985005953</v>
+        <v>10.27359624328857</v>
       </c>
       <c r="BE2">
-        <v>10.07690408983782</v>
+        <v>4.063275204255524</v>
       </c>
       <c r="BF2">
-        <v>13.38180091808511</v>
+        <v>9.067316917989707</v>
       </c>
       <c r="BG2">
-        <v>6.627485974492931</v>
+        <v>4.11322599221717</v>
       </c>
       <c r="BH2">
-        <v>19.52466727104214</v>
+        <v>3.181334973500792</v>
       </c>
       <c r="BI2">
-        <v>10.66482049780999</v>
+        <v>3.007983653828747</v>
       </c>
       <c r="BJ2">
-        <v>8.642567406102664</v>
+        <v>14.70358994822858</v>
       </c>
       <c r="BK2">
-        <v>5.203275729085906</v>
+        <v>6.880392154651089</v>
       </c>
       <c r="BL2">
-        <v>6.205999508666594</v>
+        <v>11.7570848765247</v>
       </c>
       <c r="BM2">
-        <v>14.32761891388082</v>
+        <v>7.163544666274599</v>
       </c>
       <c r="BN2">
-        <v>7.483910589244243</v>
+        <v>8.320572625559873</v>
       </c>
       <c r="BO2">
-        <v>7.344916476489912</v>
+        <v>4.645560006670019</v>
       </c>
       <c r="BP2">
-        <v>13.87091370245496</v>
+        <v>3.537788117370292</v>
       </c>
       <c r="BQ2">
-        <v>6.168965663028484</v>
+        <v>5.940198711115899</v>
       </c>
       <c r="BR2">
-        <v>10.49930870070042</v>
+        <v>3.738690367393732</v>
       </c>
       <c r="BS2">
-        <v>12.70573015403961</v>
+        <v>12.80627194057164</v>
       </c>
       <c r="BT2">
-        <v>23.70467341159691</v>
+        <v>5.294119432761709</v>
       </c>
       <c r="BU2">
-        <v>13.66129973647794</v>
+        <v>13.45866232749284</v>
       </c>
       <c r="BV2">
-        <v>22.95612573910388</v>
+        <v>4.922131073616948</v>
       </c>
       <c r="BW2">
-        <v>10.13951064585473</v>
+        <v>5.693231427259628</v>
       </c>
       <c r="BX2">
-        <v>9.11380214678122</v>
+        <v>13.30583320692027</v>
       </c>
       <c r="BY2">
-        <v>11.22176129204796</v>
+        <v>5.832160902166317</v>
       </c>
       <c r="BZ2">
-        <v>9.487008757398094</v>
+        <v>4.83974394340833</v>
       </c>
       <c r="CA2">
-        <v>7.829308558180189</v>
+        <v>9.864224322166113</v>
       </c>
       <c r="CB2">
-        <v>6.031220584311244</v>
+        <v>11.34922930684529</v>
       </c>
       <c r="CC2">
-        <v>15.15594349427583</v>
+        <v>8.043541945274979</v>
       </c>
       <c r="CD2">
-        <v>6.251174025923881</v>
+        <v>10.55956760812558</v>
       </c>
       <c r="CE2">
-        <v>15.27747415490926</v>
+        <v>5.294228260203696</v>
       </c>
       <c r="CF2">
-        <v>7.548062531242531</v>
+        <v>8.531147074743366</v>
       </c>
       <c r="CG2">
-        <v>4.910755611679742</v>
+        <v>8.129404604225019</v>
       </c>
       <c r="CH2">
-        <v>10.59647411962909</v>
+        <v>4.619308144575243</v>
       </c>
       <c r="CI2">
-        <v>5.439445128192219</v>
+        <v>5.226321942786254</v>
       </c>
       <c r="CJ2">
-        <v>7.154995553667743</v>
+        <v>7.840992899840545</v>
       </c>
       <c r="CK2">
-        <v>13.03358714320694</v>
+        <v>9.56488130040443</v>
       </c>
       <c r="CL2">
-        <v>8.517019138792978</v>
+        <v>3.7600378817292</v>
       </c>
       <c r="CM2">
-        <v>9.066651317231932</v>
+        <v>3.143819331509068</v>
       </c>
       <c r="CN2">
-        <v>5.267156494845125</v>
+        <v>6.704403700595221</v>
       </c>
       <c r="CO2">
-        <v>4.501816689639856</v>
+        <v>7.136144403037555</v>
       </c>
       <c r="CP2">
-        <v>6.115348727627705</v>
+        <v>6.646192949556508</v>
       </c>
       <c r="CQ2">
-        <v>8.013065231993735</v>
+        <v>5.238068588078535</v>
       </c>
       <c r="CR2">
-        <v>8.818255238981784</v>
+        <v>4.65093141645081</v>
       </c>
       <c r="CS2">
-        <v>5.268115041225981</v>
+        <v>7.065838938843639</v>
       </c>
       <c r="CT2">
-        <v>8.250771866698697</v>
+        <v>9.544390723764788</v>
       </c>
       <c r="CU2">
-        <v>4.636329379414475</v>
+        <v>10.12571675367489</v>
       </c>
       <c r="CV2">
-        <v>11.71022706853338</v>
+        <v>6.299252214752388</v>
       </c>
       <c r="CW2">
-        <v>5.339775038438928</v>
+        <v>11.67731639530816</v>
       </c>
       <c r="CX2">
-        <v>40.8777084505426</v>
+        <v>40.08842616069751</v>
       </c>
       <c r="CY2">
-        <v>31.63161296949532</v>
+        <v>15.55987580569433</v>
       </c>
       <c r="CZ2">
-        <v>20.52392750911928</v>
+        <v>31.4069840692846</v>
       </c>
       <c r="DA2">
-        <v>19.65546963257096</v>
+        <v>19.6341901055563</v>
       </c>
       <c r="DB2">
-        <v>35.08068435850609</v>
+        <v>18.73300482967598</v>
       </c>
       <c r="DC2">
-        <v>14.47736722491728</v>
+        <v>15.70058475577701</v>
       </c>
       <c r="DD2">
-        <v>22.54287371228953</v>
+        <v>34.26975515102655</v>
       </c>
       <c r="DE2">
-        <v>32.29944876519723</v>
+        <v>14.07636257064767</v>
       </c>
       <c r="DF2">
-        <v>32.37366326380607</v>
+        <v>21.59327806537462</v>
       </c>
       <c r="DG2">
-        <v>15.15775543906825</v>
+        <v>31.58138360770203</v>
       </c>
       <c r="DH2">
-        <v>22.65551214286195</v>
+        <v>32.11355603225377</v>
       </c>
       <c r="DI2">
-        <v>35.9361868409167</v>
+        <v>35.33051749777701</v>
       </c>
       <c r="DJ2">
-        <v>24.92817539936297</v>
+        <v>14.37959358777939</v>
       </c>
       <c r="DK2">
-        <v>15.42231385349479</v>
+        <v>22.49391224493623</v>
       </c>
       <c r="DL2">
-        <v>20.20102016663284</v>
+        <v>24.090032175642</v>
       </c>
       <c r="DM2">
-        <v>25.66799815355098</v>
+        <v>14.43019017487198</v>
       </c>
       <c r="DN2">
-        <v>31.35067111310926</v>
+        <v>19.045113662185</v>
       </c>
       <c r="DO2">
-        <v>18.55307375658269</v>
+        <v>11.50223810713632</v>
       </c>
       <c r="DP2">
-        <v>17.41408967926068</v>
+        <v>16.52175281182279</v>
       </c>
       <c r="DQ2">
-        <v>12.86519204270315</v>
+        <v>12.32640104654069</v>
       </c>
       <c r="DR2">
-        <v>44.39527771805583</v>
+        <v>44.3148407703158</v>
       </c>
       <c r="DS2">
-        <v>27.34955926885249</v>
+        <v>26.45005351585458</v>
       </c>
       <c r="DT2">
-        <v>25.18030574451444</v>
+        <v>25.12808481061022</v>
       </c>
       <c r="DU2">
-        <v>21.26845503552338</v>
+        <v>20.17952844120557</v>
       </c>
       <c r="DV2">
-        <v>14.42478009004521</v>
+        <v>13.35614957477907</v>
       </c>
       <c r="DW2">
-        <v>28.58613573747057</v>
+        <v>17.95355183156236</v>
       </c>
       <c r="DX2">
-        <v>25.51323491039565</v>
+        <v>21.0902020439707</v>
       </c>
       <c r="DY2">
-        <v>36.73163242071288</v>
+        <v>10.96143606871185</v>
       </c>
       <c r="DZ2">
-        <v>37.39043648866</v>
+        <v>13.84235371871198</v>
       </c>
       <c r="EA2">
-        <v>33.06030932249332</v>
+        <v>18.8971398018092</v>
       </c>
       <c r="EB2">
-        <v>20.27802069343196</v>
+        <v>21.13414272425443</v>
       </c>
       <c r="EC2">
-        <v>7.739466278741789</v>
+        <v>16.68077938636602</v>
       </c>
       <c r="ED2">
-        <v>24.45487929358917</v>
+        <v>15.80957890454851</v>
       </c>
       <c r="EE2">
-        <v>11.52495001878951</v>
+        <v>19.90828174083781</v>
       </c>
       <c r="EF2">
-        <v>17.76811550997345</v>
+        <v>25.43330315862624</v>
       </c>
       <c r="EG2">
-        <v>19.03637948446343</v>
+        <v>32.50809901363369</v>
       </c>
       <c r="EH2">
-        <v>11.35769177948086</v>
+        <v>21.45042134039417</v>
       </c>
       <c r="EI2">
-        <v>19.86648756133713</v>
+        <v>19.31153817346752</v>
       </c>
       <c r="EJ2">
-        <v>17.66196665543409</v>
+        <v>24.04455519946886</v>
       </c>
       <c r="EK2">
-        <v>14.82167636490298</v>
+        <v>17.48267275364334</v>
       </c>
       <c r="EL2">
-        <v>24.31052791235743</v>
+        <v>19.78690037803696</v>
       </c>
       <c r="EM2">
-        <v>40.83632183718086</v>
+        <v>41.15707983612418</v>
       </c>
       <c r="EN2">
-        <v>33.14639854828318</v>
+        <v>18.70564575102208</v>
       </c>
       <c r="EO2">
-        <v>44.20426955191351</v>
+        <v>4.000930234659931</v>
       </c>
       <c r="EP2">
-        <v>15.43203510238803</v>
+        <v>22.51841281408317</v>
       </c>
       <c r="EQ2">
-        <v>21.87027403918515</v>
+        <v>15.67090335345332</v>
       </c>
       <c r="ER2">
-        <v>17.27257852657434</v>
+        <v>44.82974769615403</v>
       </c>
       <c r="ES2">
-        <v>16.29755097024783</v>
+        <v>29.1995283204026</v>
       </c>
       <c r="ET2">
-        <v>20.64115635064888</v>
+        <v>20.47148972794362</v>
       </c>
       <c r="EU2">
-        <v>41.92213767921265</v>
+        <v>15.17034053295356</v>
       </c>
       <c r="EV2">
-        <v>31.21976847471472</v>
+        <v>17.97237009452582</v>
       </c>
       <c r="EW2">
-        <v>18.74370235317638</v>
+        <v>15.94426551825939</v>
       </c>
       <c r="EX2">
-        <v>9.439188856421699</v>
+        <v>7.631916612682136</v>
       </c>
       <c r="EY2">
-        <v>34.51737181574289</v>
+        <v>48.72650602479301</v>
       </c>
       <c r="EZ2">
-        <v>14.8867656190254</v>
+        <v>40.03788208458278</v>
       </c>
       <c r="FA2">
-        <v>18.4886469231698</v>
+        <v>22.20412045794474</v>
       </c>
       <c r="FB2">
-        <v>20.05654573794314</v>
+        <v>16.05922673922701</v>
       </c>
       <c r="FC2">
-        <v>40.75696289301448</v>
+        <v>18.04855886778517</v>
       </c>
       <c r="FD2">
-        <v>18.82723570609452</v>
+        <v>12.57332127660949</v>
       </c>
       <c r="FE2">
-        <v>11.50728309806435</v>
+        <v>32.28679145907671</v>
       </c>
       <c r="FF2">
-        <v>38.06942320580092</v>
+        <v>39.01826584581361</v>
       </c>
       <c r="FG2">
-        <v>9.05485310833015</v>
+        <v>16.35293570760931</v>
       </c>
       <c r="FH2">
-        <v>41.56890208401445</v>
+        <v>17.41285996974204</v>
       </c>
       <c r="FI2">
-        <v>22.2659679130258</v>
+        <v>35.95011203239186</v>
       </c>
       <c r="FJ2">
-        <v>32.40049634388738</v>
+        <v>27.11402476327116</v>
       </c>
       <c r="FK2">
-        <v>16.97470869336937</v>
+        <v>14.01455142934869</v>
       </c>
       <c r="FL2">
-        <v>31.57248810105365</v>
+        <v>6.271562642499286</v>
       </c>
       <c r="FM2">
-        <v>13.88348536223548</v>
+        <v>38.88538256657988</v>
       </c>
       <c r="FN2">
-        <v>38.75098432547168</v>
+        <v>28.68306758048565</v>
       </c>
       <c r="FO2">
-        <v>32.64556965665446</v>
+        <v>9.477613147707412</v>
       </c>
       <c r="FP2">
-        <v>15.96756923451611</v>
+        <v>13.65027898777426</v>
       </c>
       <c r="FQ2">
-        <v>12.03107625350047</v>
+        <v>24.23659790292593</v>
       </c>
       <c r="FR2">
-        <v>25.15629755161309</v>
+        <v>33.78469584595164</v>
       </c>
       <c r="FS2">
-        <v>26.32612725037397</v>
+        <v>10.08207370816358</v>
       </c>
       <c r="FT2">
-        <v>41.07209066584289</v>
+        <v>26.78092013454893</v>
       </c>
       <c r="FU2">
-        <v>21.13351891410313</v>
+        <v>4.821574542558187</v>
       </c>
       <c r="FV2">
-        <v>19.69185146865292</v>
+        <v>29.27614580943441</v>
       </c>
       <c r="FW2">
-        <v>13.39835636949655</v>
+        <v>19.58611358886179</v>
       </c>
       <c r="FX2">
-        <v>25.03803995068313</v>
+        <v>4.381217701043342</v>
       </c>
       <c r="FY2">
-        <v>25.18614283219858</v>
+        <v>17.54976585235075</v>
       </c>
       <c r="FZ2">
-        <v>11.0033142606952</v>
+        <v>8.027110720658913</v>
       </c>
       <c r="GA2">
-        <v>9.935513898913758</v>
+        <v>13.98382272310865</v>
       </c>
       <c r="GB2">
-        <v>23.02929561703579</v>
+        <v>5.423481917226491</v>
       </c>
       <c r="GC2">
-        <v>21.74891067876352</v>
+        <v>2.046867076279575</v>
       </c>
       <c r="GD2">
-        <v>15.6073669966482</v>
+        <v>18.19884714647726</v>
       </c>
       <c r="GE2">
-        <v>18.62723150597225</v>
+        <v>13.17398359625875</v>
       </c>
       <c r="GF2">
-        <v>21.90912140448043</v>
+        <v>10.94080078060923</v>
       </c>
       <c r="GG2">
-        <v>9.584318791101175</v>
+        <v>10.91246049381421</v>
       </c>
       <c r="GH2">
-        <v>10.52642340889851</v>
+        <v>14.46160052614831</v>
       </c>
       <c r="GI2">
-        <v>7.702919940366933</v>
+        <v>3.294912607810566</v>
       </c>
       <c r="GJ2">
-        <v>16.45630006023874</v>
+        <v>4.786425956267166</v>
       </c>
       <c r="GK2">
-        <v>9.469568835023663</v>
+        <v>5.794139981741864</v>
       </c>
       <c r="GL2">
-        <v>27.38833368239559</v>
+        <v>9.04091175256649</v>
       </c>
       <c r="GM2">
-        <v>24.31323490860338</v>
+        <v>11.32402544473462</v>
       </c>
       <c r="GN2">
-        <v>13.06236037256694</v>
+        <v>31.60358932317866</v>
       </c>
       <c r="GO2">
-        <v>31.90589897166441</v>
+        <v>3.490168501928667</v>
+      </c>
+      <c r="GP2">
+        <v>18.21630557271865</v>
+      </c>
+      <c r="GQ2">
+        <v>12.56413342606736</v>
+      </c>
+      <c r="GR2">
+        <v>22.83919447406334</v>
+      </c>
+      <c r="GS2">
+        <v>7.86388499631171</v>
       </c>
     </row>
     <row r="3" spans="1:201">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>7.742542200596223</v>
-      </c>
       <c r="C3">
-        <v>4.700819109845993</v>
+        <v>5.195293947869432</v>
       </c>
       <c r="D3">
-        <v>5.87294663123105</v>
+        <v>4.711170964033712</v>
       </c>
       <c r="E3">
-        <v>4.513914520705963</v>
-      </c>
-      <c r="F3">
-        <v>5.272126236560963</v>
-      </c>
-      <c r="G3">
-        <v>5.150804262612965</v>
+        <v>7.30517189525137</v>
       </c>
       <c r="H3">
-        <v>4.683363131337356</v>
+        <v>10.93291818454345</v>
       </c>
       <c r="I3">
-        <v>7.745532579822807</v>
+        <v>4.005457117036054</v>
+      </c>
+      <c r="J3">
+        <v>4.093935883700832</v>
+      </c>
+      <c r="K3">
+        <v>4.603195862387248</v>
       </c>
       <c r="L3">
-        <v>3.933853280859662</v>
+        <v>5.831839886678189</v>
+      </c>
+      <c r="M3">
+        <v>4.645749645723697</v>
       </c>
       <c r="N3">
-        <v>6.268560032751712</v>
+        <v>3.951405345602498</v>
+      </c>
+      <c r="O3">
+        <v>7.327700971149427</v>
       </c>
       <c r="P3">
-        <v>5.125464460111604</v>
-      </c>
-      <c r="R3">
-        <v>4.616903844642676</v>
-      </c>
-      <c r="S3">
-        <v>8.035825292671451</v>
+        <v>4.926129522704839</v>
+      </c>
+      <c r="Q3">
+        <v>5.779436975488075</v>
       </c>
       <c r="T3">
-        <v>3.525623056251798</v>
+        <v>12.86514160905589</v>
+      </c>
+      <c r="U3">
+        <v>4.63524545718188</v>
       </c>
       <c r="V3">
-        <v>5.292554456003717</v>
-      </c>
-      <c r="X3">
-        <v>11.35320284475</v>
+        <v>3.846486012399757</v>
+      </c>
+      <c r="W3">
+        <v>5.712572846409575</v>
       </c>
       <c r="Y3">
-        <v>4.686076969601611</v>
+        <v>10.82107145561287</v>
       </c>
       <c r="Z3">
-        <v>4.73253477060485</v>
-      </c>
-      <c r="AB3">
-        <v>3.742332031465008</v>
+        <v>5.037635211062272</v>
+      </c>
+      <c r="AA3">
+        <v>6.756937510480502</v>
       </c>
       <c r="AC3">
-        <v>4.364262739141396</v>
+        <v>4.534104955721753</v>
       </c>
       <c r="AD3">
-        <v>4.568579050017133</v>
-      </c>
-      <c r="AE3">
-        <v>6.358390499457087</v>
+        <v>21.92629233359157</v>
       </c>
       <c r="AF3">
-        <v>6.940912710340603</v>
+        <v>6.436668535712035</v>
       </c>
       <c r="AG3">
-        <v>4.703378634438181</v>
-      </c>
-      <c r="AH3">
-        <v>3.416650032141524</v>
+        <v>8.683234839498926</v>
       </c>
       <c r="AI3">
-        <v>4.759826567594121</v>
+        <v>4.911674132501247</v>
       </c>
       <c r="AJ3">
-        <v>7.288901299511736</v>
+        <v>5.891277719221365</v>
+      </c>
+      <c r="AK3">
+        <v>4.943962079092227</v>
       </c>
       <c r="AL3">
-        <v>2.902453301646379</v>
+        <v>18.12148021129425</v>
+      </c>
+      <c r="AM3">
+        <v>4.934579133829022</v>
       </c>
       <c r="AN3">
-        <v>22.84279619155334</v>
+        <v>3.667773480494999</v>
       </c>
       <c r="AO3">
-        <v>5.605892051848403</v>
+        <v>18.321188224304</v>
       </c>
       <c r="AP3">
-        <v>8.661826701391478</v>
+        <v>4.487922558254912</v>
       </c>
       <c r="AQ3">
-        <v>17.6350927277624</v>
+        <v>2.930457689554609</v>
       </c>
       <c r="AR3">
-        <v>4.217660422992358</v>
+        <v>3.604389512406097</v>
       </c>
       <c r="AT3">
-        <v>8.652932313753304</v>
+        <v>3.841624036103001</v>
+      </c>
+      <c r="AU3">
+        <v>3.569444914397118</v>
       </c>
       <c r="AV3">
-        <v>5.88306452392121</v>
+        <v>3.436717317791369</v>
       </c>
       <c r="AW3">
-        <v>17.47093754592364</v>
+        <v>6.92812367823837</v>
       </c>
       <c r="AX3">
-        <v>5.50405450705143</v>
+        <v>2.064134595044309</v>
       </c>
       <c r="AY3">
-        <v>3.028606370851493</v>
-      </c>
-      <c r="AZ3">
-        <v>6.870334259987672</v>
+        <v>16.359397454086</v>
       </c>
       <c r="BA3">
-        <v>5.72078075944755</v>
+        <v>11.66221586601827</v>
       </c>
       <c r="BB3">
-        <v>10.26893626973228</v>
+        <v>6.597017605244814</v>
       </c>
       <c r="BC3">
-        <v>6.427557444710044</v>
+        <v>9.822556695195413</v>
       </c>
       <c r="BD3">
-        <v>3.654744022162124</v>
+        <v>3.456374582206227</v>
       </c>
       <c r="BE3">
-        <v>5.881399560906496</v>
+        <v>2.76493049272673</v>
       </c>
       <c r="BF3">
-        <v>9.996968721748791</v>
-      </c>
-      <c r="BG3">
-        <v>5.447165262694893</v>
+        <v>2.907432472885898</v>
       </c>
       <c r="BH3">
-        <v>7.826649786183498</v>
+        <v>3.417289953654804</v>
       </c>
       <c r="BI3">
-        <v>4.027374750164596</v>
+        <v>2.926512170019391</v>
       </c>
       <c r="BJ3">
-        <v>5.573292125165369</v>
+        <v>6.547035899670169</v>
+      </c>
+      <c r="BK3">
+        <v>5.076290117104827</v>
       </c>
       <c r="BL3">
-        <v>6.990279324948342</v>
-      </c>
-      <c r="BM3">
-        <v>5.285777029438847</v>
+        <v>3.893434398729319</v>
+      </c>
+      <c r="BN3">
+        <v>7.623704888276867</v>
+      </c>
+      <c r="BO3">
+        <v>3.413962166062029</v>
+      </c>
+      <c r="BP3">
+        <v>2.118118493751414</v>
       </c>
       <c r="BQ3">
-        <v>4.856401811470448</v>
+        <v>2.668943193840497</v>
       </c>
       <c r="BR3">
-        <v>5.104884352764028</v>
+        <v>4.232164147690616</v>
       </c>
       <c r="BS3">
-        <v>9.451294731340569</v>
+        <v>5.184881349641449</v>
       </c>
       <c r="BT3">
-        <v>4.681027642531586</v>
+        <v>6.469234654355455</v>
       </c>
       <c r="BU3">
-        <v>6.306160625067718</v>
+        <v>5.86094126445529</v>
       </c>
       <c r="BV3">
-        <v>4.625864156002679</v>
+        <v>3.803762976415017</v>
       </c>
       <c r="BW3">
-        <v>4.573555822021374</v>
+        <v>5.639981426248628</v>
       </c>
       <c r="BX3">
-        <v>5.437646118999088</v>
-      </c>
-      <c r="CA3">
-        <v>4.278630352820098</v>
+        <v>3.582807055098154</v>
+      </c>
+      <c r="BY3">
+        <v>3.071782451933553</v>
+      </c>
+      <c r="BZ3">
+        <v>3.204431832000396</v>
       </c>
       <c r="CB3">
-        <v>4.140180330031026</v>
+        <v>5.118065004072554</v>
+      </c>
+      <c r="CC3">
+        <v>2.117531220255049</v>
       </c>
       <c r="CD3">
-        <v>4.908778399306214</v>
+        <v>3.304590619640443</v>
       </c>
       <c r="CE3">
-        <v>6.832319759202095</v>
+        <v>3.379866111776817</v>
       </c>
       <c r="CF3">
-        <v>3.961278622868802</v>
+        <v>2.778913308280552</v>
+      </c>
+      <c r="CG3">
+        <v>3.919057993764672</v>
       </c>
       <c r="CH3">
-        <v>3.421794219978735</v>
+        <v>3.181981011769517</v>
+      </c>
+      <c r="CI3">
+        <v>2.023048773884745</v>
       </c>
       <c r="CK3">
-        <v>6.048861733153794</v>
+        <v>9.081810949085989</v>
+      </c>
+      <c r="CL3">
+        <v>3.385652128482033</v>
       </c>
       <c r="CM3">
-        <v>9.423282362950994</v>
+        <v>2.974843494424229</v>
       </c>
       <c r="CN3">
-        <v>4.235820729387905</v>
+        <v>2.962716596724819</v>
+      </c>
+      <c r="CO3">
+        <v>4.803262006828837</v>
       </c>
       <c r="CP3">
-        <v>5.969197471868844</v>
+        <v>4.396568299916325</v>
+      </c>
+      <c r="CQ3">
+        <v>3.070588956266985</v>
+      </c>
+      <c r="CR3">
+        <v>2.766211961533072</v>
       </c>
       <c r="CS3">
-        <v>3.866973403712403</v>
+        <v>2.48157994349349</v>
+      </c>
+      <c r="CT3">
+        <v>3.375551176730126</v>
+      </c>
+      <c r="CU3">
+        <v>3.927747787149631</v>
+      </c>
+      <c r="CV3">
+        <v>5.071864724233665</v>
+      </c>
+      <c r="CW3">
+        <v>5.829497559460148</v>
       </c>
       <c r="CX3">
-        <v>26.85733166781029</v>
+        <v>26.11247087971694</v>
+      </c>
+      <c r="CY3">
+        <v>4.008304200732295</v>
+      </c>
+      <c r="CZ3">
+        <v>6.49900800811199</v>
       </c>
       <c r="DA3">
-        <v>11.99984515839344</v>
+        <v>15.24672352981516</v>
       </c>
       <c r="DB3">
-        <v>14.13946842210007</v>
+        <v>11.33778004211259</v>
+      </c>
+      <c r="DC3">
+        <v>7.370055274497566</v>
       </c>
       <c r="DD3">
-        <v>15.36311004065266</v>
+        <v>13.33308995157244</v>
       </c>
       <c r="DE3">
-        <v>16.21318765375965</v>
+        <v>4.704649162279127</v>
+      </c>
+      <c r="DF3">
+        <v>14.047639884491</v>
       </c>
       <c r="DG3">
-        <v>11.75444335225931</v>
+        <v>15.67877693084673</v>
+      </c>
+      <c r="DH3">
+        <v>11.26188772740865</v>
       </c>
       <c r="DI3">
-        <v>24.68276098121812</v>
+        <v>23.62140605829744</v>
       </c>
       <c r="DJ3">
-        <v>17.12869117919867</v>
+        <v>10.0204648636139</v>
       </c>
       <c r="DK3">
-        <v>10.14924046106556</v>
+        <v>21.00012508480512</v>
       </c>
       <c r="DL3">
-        <v>11.44647204533478</v>
+        <v>15.99021116118178</v>
+      </c>
+      <c r="DM3">
+        <v>9.175672931553803</v>
+      </c>
+      <c r="DN3">
+        <v>9.58682171278768</v>
       </c>
       <c r="DO3">
-        <v>9.049934526095942</v>
+        <v>5.889077909031366</v>
+      </c>
+      <c r="DP3">
+        <v>6.428574398767403</v>
+      </c>
+      <c r="DQ3">
+        <v>23.2709887159697</v>
+      </c>
+      <c r="DR3">
+        <v>19.88383535265564</v>
       </c>
       <c r="DS3">
-        <v>13.02201669053147</v>
+        <v>11.30057379740299</v>
+      </c>
+      <c r="DT3">
+        <v>20.56923191388308</v>
       </c>
       <c r="DU3">
-        <v>16.1008269274516</v>
+        <v>15.26768092892881</v>
       </c>
       <c r="DV3">
-        <v>14.08854161680892</v>
+        <v>13.51537740380867</v>
       </c>
       <c r="DW3">
-        <v>16.01950129065814</v>
+        <v>10.75355210547179</v>
       </c>
       <c r="DX3">
-        <v>22.707587630897</v>
+        <v>9.163715315875001</v>
+      </c>
+      <c r="DY3">
+        <v>5.969579803618666</v>
+      </c>
+      <c r="DZ3">
+        <v>11.7993541923639</v>
+      </c>
+      <c r="EB3">
+        <v>19.98768258091528</v>
+      </c>
+      <c r="EC3">
+        <v>11.09821906200286</v>
+      </c>
+      <c r="ED3">
+        <v>4.05864669734313</v>
+      </c>
+      <c r="EE3">
+        <v>13.19054434909615</v>
+      </c>
+      <c r="EF3">
+        <v>13.91190585353199</v>
+      </c>
+      <c r="EH3">
+        <v>10.44777512117444</v>
+      </c>
+      <c r="EI3">
+        <v>15.57958558370209</v>
+      </c>
+      <c r="EJ3">
+        <v>12.98825624713166</v>
+      </c>
+      <c r="EK3">
+        <v>9.203438433897809</v>
+      </c>
+      <c r="EL3">
+        <v>18.82686842505925</v>
       </c>
       <c r="EM3">
-        <v>34.69535508414147</v>
+        <v>29.3665640829245</v>
       </c>
       <c r="EN3">
-        <v>27.48554306705771</v>
+        <v>6.460446876138817</v>
       </c>
       <c r="EO3">
-        <v>34.22501336753712</v>
+        <v>4.093540884515716</v>
       </c>
       <c r="EP3">
-        <v>12.92649374222106</v>
+        <v>15.03286990500858</v>
       </c>
       <c r="EQ3">
-        <v>20.62720280935883</v>
+        <v>5.20720189160493</v>
+      </c>
+      <c r="ER3">
+        <v>34.69279690580304</v>
       </c>
       <c r="ET3">
-        <v>13.75960733589823</v>
+        <v>9.436271347722366</v>
+      </c>
+      <c r="EU3">
+        <v>6.529313611778436</v>
+      </c>
+      <c r="EV3">
+        <v>17.3861027166314</v>
+      </c>
+      <c r="EW3">
+        <v>8.793326717371711</v>
       </c>
       <c r="EX3">
-        <v>8.630351921947229</v>
+        <v>6.0434517668533</v>
       </c>
       <c r="EY3">
-        <v>29.94260782218332</v>
+        <v>15.74733035969991</v>
+      </c>
+      <c r="EZ3">
+        <v>24.1903156896056</v>
+      </c>
+      <c r="FA3">
+        <v>7.089254517281475</v>
       </c>
       <c r="FB3">
-        <v>10.72114950772226</v>
+        <v>9.421185011666152</v>
+      </c>
+      <c r="FC3">
+        <v>13.93791112665992</v>
+      </c>
+      <c r="FD3">
+        <v>7.58447210921894</v>
       </c>
       <c r="FE3">
-        <v>10.04055432504112</v>
+        <v>20.5189712138446</v>
       </c>
       <c r="FF3">
-        <v>20.45660614572317</v>
+        <v>17.29504155872819</v>
       </c>
       <c r="FG3">
-        <v>7.256237209075631</v>
+        <v>5.192871404684011</v>
+      </c>
+      <c r="FI3">
+        <v>21.46869327627096</v>
+      </c>
+      <c r="FJ3">
+        <v>8.768144492971548</v>
       </c>
       <c r="FK3">
-        <v>10.09955085307439</v>
+        <v>12.22898604666712</v>
       </c>
       <c r="FL3">
-        <v>21.65915992001407</v>
+        <v>7.422335502013038</v>
       </c>
       <c r="FM3">
-        <v>9.500986518750556</v>
+        <v>35.46020823949006</v>
       </c>
       <c r="FN3">
-        <v>22.55967436761074</v>
+        <v>17.33509470603526</v>
       </c>
       <c r="FO3">
-        <v>21.53558160782326</v>
+        <v>7.667708563132159</v>
+      </c>
+      <c r="FP3">
+        <v>11.24485883252579</v>
       </c>
       <c r="FQ3">
-        <v>11.05176181294396</v>
+        <v>16.1300570644108</v>
       </c>
       <c r="FR3">
-        <v>17.11729112490471</v>
+        <v>9.217528059629462</v>
+      </c>
+      <c r="FS3">
+        <v>10.47907415358075</v>
+      </c>
+      <c r="FT3">
+        <v>16.2681425351945</v>
+      </c>
+      <c r="FU3">
+        <v>5.026607943619346</v>
+      </c>
+      <c r="FV3">
+        <v>11.93990640453137</v>
+      </c>
+      <c r="FW3">
+        <v>10.02438408200591</v>
+      </c>
+      <c r="FX3">
+        <v>4.919334468555547</v>
+      </c>
+      <c r="FY3">
+        <v>12.21461505217564</v>
+      </c>
+      <c r="FZ3">
+        <v>6.911063156367268</v>
+      </c>
+      <c r="GA3">
+        <v>4.126573010054496</v>
+      </c>
+      <c r="GB3">
+        <v>8.328840342432496</v>
       </c>
       <c r="GC3">
-        <v>30.10021214543765</v>
+        <v>5.337697326068572</v>
+      </c>
+      <c r="GD3">
+        <v>14.19002424151916</v>
+      </c>
+      <c r="GE3">
+        <v>10.47519075033289</v>
       </c>
       <c r="GG3">
-        <v>8.886655910805606</v>
+        <v>9.261236693309971</v>
+      </c>
+      <c r="GH3">
+        <v>5.125513072826113</v>
+      </c>
+      <c r="GI3">
+        <v>6.738526489194736</v>
       </c>
       <c r="GJ3">
-        <v>19.02691211881678</v>
+        <v>5.672456540742108</v>
+      </c>
+      <c r="GK3">
+        <v>4.964158192776438</v>
+      </c>
+      <c r="GL3">
+        <v>10.50037975767535</v>
+      </c>
+      <c r="GM3">
+        <v>17.8140455842069</v>
+      </c>
+      <c r="GN3">
+        <v>15.61409189206132</v>
+      </c>
+      <c r="GO3">
+        <v>7.874550501364272</v>
+      </c>
+      <c r="GP3">
+        <v>4.29693395246867</v>
+      </c>
+      <c r="GQ3">
+        <v>3.445067037812779</v>
+      </c>
+      <c r="GR3">
+        <v>12.65685619163586</v>
       </c>
     </row>
     <row r="4" spans="1:201">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>5.998143201010842</v>
+      </c>
       <c r="C4">
-        <v>4.712237859579291</v>
+        <v>4.572380082940597</v>
       </c>
       <c r="D4">
-        <v>5.382475488722955</v>
+        <v>5.34150344477483</v>
       </c>
       <c r="E4">
-        <v>4.823979963385622</v>
-      </c>
-      <c r="F4">
-        <v>6.228818802631558</v>
+        <v>7.712571817336137</v>
       </c>
       <c r="H4">
-        <v>5.127230873613091</v>
+        <v>11.57801007450218</v>
       </c>
       <c r="I4">
-        <v>7.608984089435808</v>
+        <v>4.12881021643605</v>
+      </c>
+      <c r="J4">
+        <v>3.758400575515189</v>
+      </c>
+      <c r="K4">
+        <v>5.491768489011646</v>
       </c>
       <c r="L4">
-        <v>5.02893852542919</v>
+        <v>4.996170822854221</v>
+      </c>
+      <c r="M4">
+        <v>4.983920750678092</v>
       </c>
       <c r="N4">
-        <v>6.547322646666446</v>
+        <v>4.306584612038344</v>
+      </c>
+      <c r="O4">
+        <v>7.188128957369139</v>
+      </c>
+      <c r="P4">
+        <v>4.583807126294007</v>
       </c>
       <c r="Q4">
-        <v>6.21841161261996</v>
-      </c>
-      <c r="R4">
-        <v>5.683739961927806</v>
-      </c>
-      <c r="S4">
-        <v>9.132777721610999</v>
+        <v>6.188313329218738</v>
       </c>
       <c r="T4">
-        <v>3.15851424887612</v>
+        <v>11.03015220090384</v>
+      </c>
+      <c r="U4">
+        <v>3.979648608207917</v>
       </c>
       <c r="V4">
-        <v>5.673114170517275</v>
+        <v>4.069567647873265</v>
       </c>
       <c r="W4">
-        <v>6.985692254175446</v>
-      </c>
-      <c r="X4">
-        <v>12.17257873444643</v>
-      </c>
-      <c r="Y4">
-        <v>5.537508649877427</v>
+        <v>6.850775561471989</v>
+      </c>
+      <c r="Z4">
+        <v>5.963155849433182</v>
+      </c>
+      <c r="AA4">
+        <v>8.320720513194223</v>
       </c>
       <c r="AC4">
-        <v>4.567871744156154</v>
-      </c>
-      <c r="AE4">
-        <v>8.098085626877547</v>
+        <v>6.079268469657984</v>
+      </c>
+      <c r="AD4">
+        <v>18.66325373513435</v>
       </c>
       <c r="AF4">
-        <v>9.867400566302798</v>
-      </c>
-      <c r="AH4">
-        <v>4.077159167575822</v>
+        <v>7.396071371042863</v>
+      </c>
+      <c r="AG4">
+        <v>7.70535621396716</v>
       </c>
       <c r="AI4">
-        <v>5.131173267104943</v>
+        <v>5.069576687386077</v>
       </c>
       <c r="AJ4">
-        <v>9.0559104155168</v>
+        <v>5.601791436552588</v>
+      </c>
+      <c r="AK4">
+        <v>6.035432285664429</v>
       </c>
       <c r="AL4">
-        <v>3.422805127777178</v>
+        <v>21.71724546402231</v>
+      </c>
+      <c r="AM4">
+        <v>4.192895258817157</v>
+      </c>
+      <c r="AN4">
+        <v>5.728248595305294</v>
       </c>
       <c r="AO4">
-        <v>8.262949247268244</v>
+        <v>16.08244666696811</v>
       </c>
       <c r="AP4">
-        <v>9.075960939384141</v>
+        <v>5.192335657679982</v>
       </c>
       <c r="AQ4">
-        <v>19.80733106628089</v>
+        <v>5.221438170139058</v>
       </c>
       <c r="AR4">
-        <v>4.900431224948911</v>
-      </c>
-      <c r="AS4">
-        <v>9.88072926525251</v>
+        <v>3.649354628735893</v>
       </c>
       <c r="AT4">
-        <v>7.985075879975768</v>
+        <v>4.602526557736848</v>
+      </c>
+      <c r="AU4">
+        <v>3.365509247085329</v>
       </c>
       <c r="AV4">
-        <v>6.667099267993004</v>
+        <v>3.46580324699586</v>
       </c>
       <c r="AW4">
-        <v>16.60915792499432</v>
+        <v>6.720086845038803</v>
       </c>
       <c r="AX4">
-        <v>7.924925612400142</v>
+        <v>3.006611696739552</v>
+      </c>
+      <c r="AY4">
+        <v>12.82138683140456</v>
       </c>
       <c r="AZ4">
-        <v>7.19459746290574</v>
+        <v>2.060133428025836</v>
       </c>
       <c r="BA4">
-        <v>5.723068585511395</v>
+        <v>12.00934794426072</v>
       </c>
       <c r="BB4">
-        <v>8.699012594299496</v>
+        <v>7.612403087349244</v>
       </c>
       <c r="BC4">
-        <v>6.23486492793659</v>
+        <v>9.695615665268916</v>
       </c>
       <c r="BD4">
-        <v>5.491304583157112</v>
+        <v>2.450529905617597</v>
       </c>
       <c r="BE4">
-        <v>7.272131361914394</v>
+        <v>3.642100533983166</v>
       </c>
       <c r="BF4">
-        <v>7.602270711002493</v>
-      </c>
-      <c r="BG4">
-        <v>4.26149686504075</v>
+        <v>3.976400224864496</v>
       </c>
       <c r="BH4">
-        <v>6.460137177574703</v>
+        <v>5.259003769540918</v>
       </c>
       <c r="BI4">
-        <v>4.818675532011559</v>
+        <v>4.110313910737422</v>
       </c>
       <c r="BJ4">
-        <v>5.793595047319263</v>
+        <v>5.915454515278888</v>
+      </c>
+      <c r="BK4">
+        <v>4.039515824738284</v>
       </c>
       <c r="BL4">
-        <v>6.464161056390113</v>
+        <v>3.314885136227662</v>
       </c>
       <c r="BM4">
-        <v>4.905996985257946</v>
+        <v>4.400061876019271</v>
       </c>
       <c r="BN4">
-        <v>6.187970542509564</v>
+        <v>8.427026246267387</v>
       </c>
       <c r="BO4">
-        <v>4.478308952041287</v>
+        <v>3.244657714916309</v>
+      </c>
+      <c r="BP4">
+        <v>3.379802342945871</v>
+      </c>
+      <c r="BQ4">
+        <v>2.649493056466369</v>
       </c>
       <c r="BR4">
-        <v>4.695721512887424</v>
+        <v>4.067349392511012</v>
       </c>
       <c r="BS4">
-        <v>9.118825673103627</v>
+        <v>3.489127286708956</v>
+      </c>
+      <c r="BT4">
+        <v>6.424665488506934</v>
       </c>
       <c r="BU4">
-        <v>4.848401160442497</v>
+        <v>4.510682012790573</v>
+      </c>
+      <c r="BV4">
+        <v>4.359252768482992</v>
+      </c>
+      <c r="BW4">
+        <v>5.43806728348428</v>
       </c>
       <c r="BX4">
-        <v>4.332013772042807</v>
+        <v>2.937800977026022</v>
       </c>
       <c r="BY4">
-        <v>16.8920321094418</v>
-      </c>
-      <c r="CA4">
-        <v>4.067714260721543</v>
+        <v>3.633077906795094</v>
+      </c>
+      <c r="BZ4">
+        <v>3.008950675745091</v>
+      </c>
+      <c r="CB4">
+        <v>5.180439965961749</v>
+      </c>
+      <c r="CC4">
+        <v>1.640625099142964</v>
+      </c>
+      <c r="CD4">
+        <v>2.756484708428073</v>
       </c>
       <c r="CE4">
-        <v>8.081106816594241</v>
+        <v>3.468055481811394</v>
       </c>
       <c r="CF4">
-        <v>3.838316921755267</v>
+        <v>2.522428027251962</v>
+      </c>
+      <c r="CG4">
+        <v>4.394927855525651</v>
       </c>
       <c r="CH4">
-        <v>3.549823431193414</v>
+        <v>3.328664602738687</v>
       </c>
       <c r="CI4">
-        <v>3.030032691501978</v>
+        <v>1.794361522260544</v>
       </c>
       <c r="CK4">
-        <v>6.107465813981118</v>
+        <v>8.408111761620965</v>
       </c>
       <c r="CL4">
-        <v>4.779099030877091</v>
+        <v>3.638510363016193</v>
       </c>
       <c r="CM4">
-        <v>8.808849505718998</v>
+        <v>3.51288340087116</v>
       </c>
       <c r="CN4">
-        <v>4.057944186898871</v>
+        <v>3.200423218135847</v>
+      </c>
+      <c r="CO4">
+        <v>5.230953720798251</v>
       </c>
       <c r="CP4">
-        <v>7.25149022279612</v>
+        <v>5.520087592395045</v>
+      </c>
+      <c r="CQ4">
+        <v>3.419231808939446</v>
+      </c>
+      <c r="CR4">
+        <v>3.323925879711163</v>
       </c>
       <c r="CS4">
-        <v>4.108541792216561</v>
+        <v>2.688125501851071</v>
+      </c>
+      <c r="CT4">
+        <v>2.498587481570635</v>
       </c>
       <c r="CU4">
-        <v>6.655482071722323</v>
+        <v>4.714763998573428</v>
+      </c>
+      <c r="CV4">
+        <v>5.094730281798975</v>
+      </c>
+      <c r="CW4">
+        <v>9.304103262206789</v>
       </c>
       <c r="CX4">
-        <v>26.75831081229652</v>
+        <v>25.55552742505525</v>
+      </c>
+      <c r="CY4">
+        <v>5.626453069344069</v>
+      </c>
+      <c r="CZ4">
+        <v>7.318527685943972</v>
       </c>
       <c r="DA4">
-        <v>12.27195419630733</v>
+        <v>12.09313309253648</v>
       </c>
       <c r="DB4">
-        <v>13.57147322709722</v>
+        <v>10.86790796360525</v>
       </c>
       <c r="DD4">
-        <v>17.17412557306331</v>
+        <v>12.60998629038429</v>
       </c>
       <c r="DE4">
-        <v>20.83942440563532</v>
+        <v>8.417712970192111</v>
+      </c>
+      <c r="DF4">
+        <v>15.5367160389945</v>
       </c>
       <c r="DG4">
-        <v>13.25118668744243</v>
+        <v>19.98930457600799</v>
+      </c>
+      <c r="DH4">
+        <v>14.89167284838483</v>
       </c>
       <c r="DI4">
-        <v>25.60665324176451</v>
+        <v>24.5866850136556</v>
       </c>
       <c r="DJ4">
-        <v>18.8321971893619</v>
+        <v>11.17849764590948</v>
       </c>
       <c r="DK4">
-        <v>11.56734374124578</v>
+        <v>17.6755845420735</v>
       </c>
       <c r="DL4">
-        <v>17.31157886833356</v>
+        <v>16.90295146564955</v>
+      </c>
+      <c r="DM4">
+        <v>9.884244297845989</v>
+      </c>
+      <c r="DN4">
+        <v>15.08675533233515</v>
       </c>
       <c r="DO4">
-        <v>10.32242295240463</v>
+        <v>5.926160814631886</v>
+      </c>
+      <c r="DP4">
+        <v>6.798552390727441</v>
+      </c>
+      <c r="DQ4">
+        <v>13.58081449530044</v>
+      </c>
+      <c r="DR4">
+        <v>20.39604494687434</v>
       </c>
       <c r="DS4">
-        <v>15.41644807522832</v>
+        <v>12.56785972922592</v>
+      </c>
+      <c r="DT4">
+        <v>14.4403044908095</v>
       </c>
       <c r="DU4">
-        <v>17.70074232340492</v>
+        <v>16.41286262320666</v>
       </c>
       <c r="DV4">
-        <v>16.73850778875545</v>
+        <v>14.69358615139603</v>
+      </c>
+      <c r="DW4">
+        <v>11.86327941607494</v>
       </c>
       <c r="DX4">
-        <v>13.53035636137016</v>
+        <v>9.173739322885558</v>
+      </c>
+      <c r="DY4">
+        <v>6.538087242726341</v>
+      </c>
+      <c r="DZ4">
+        <v>10.11801072259254</v>
+      </c>
+      <c r="EB4">
+        <v>13.35141460915046</v>
+      </c>
+      <c r="EC4">
+        <v>13.63056231292342</v>
       </c>
       <c r="ED4">
-        <v>14.69734443071683</v>
+        <v>3.783367595496448</v>
+      </c>
+      <c r="EE4">
+        <v>9.006046001644824</v>
       </c>
       <c r="EF4">
-        <v>11.48218612118469</v>
-      </c>
-      <c r="EG4">
-        <v>6.813081682328261</v>
+        <v>8.253403178565874</v>
+      </c>
+      <c r="EH4">
+        <v>12.05351811948756</v>
       </c>
       <c r="EI4">
-        <v>13.0465531713679</v>
+        <v>17.70463835510504</v>
+      </c>
+      <c r="EJ4">
+        <v>14.21245854238709</v>
+      </c>
+      <c r="EK4">
+        <v>10.74829201976529</v>
+      </c>
+      <c r="EL4">
+        <v>18.44910955721049</v>
       </c>
       <c r="EM4">
-        <v>27.20192379301784</v>
+        <v>18.95816851927945</v>
       </c>
       <c r="EN4">
-        <v>18.55550769238412</v>
-      </c>
-      <c r="EO4">
-        <v>23.8477309826584</v>
+        <v>5.529483628690264</v>
       </c>
       <c r="EP4">
-        <v>11.41658254484343</v>
+        <v>7.805959749936347</v>
       </c>
       <c r="EQ4">
-        <v>14.48861470992897</v>
-      </c>
-      <c r="ET4">
-        <v>10.14555651444259</v>
+        <v>7.729059708926133</v>
+      </c>
+      <c r="ER4">
+        <v>27.66222856390402</v>
+      </c>
+      <c r="EV4">
+        <v>18.0846550610365</v>
+      </c>
+      <c r="EW4">
+        <v>9.419670205890506</v>
       </c>
       <c r="EX4">
-        <v>9.907659815837343</v>
+        <v>6.457218220637944</v>
       </c>
       <c r="EY4">
-        <v>28.22853003488174</v>
+        <v>16.17543181705416</v>
+      </c>
+      <c r="EZ4">
+        <v>19.20588398896217</v>
+      </c>
+      <c r="FA4">
+        <v>9.490915881388036</v>
+      </c>
+      <c r="FB4">
+        <v>11.89574092761779</v>
+      </c>
+      <c r="FC4">
+        <v>14.34892143365536</v>
+      </c>
+      <c r="FD4">
+        <v>6.132472230244499</v>
       </c>
       <c r="FE4">
-        <v>11.210780272644</v>
+        <v>26.95361780619099</v>
       </c>
       <c r="FF4">
-        <v>20.29199206730204</v>
+        <v>15.37132268817119</v>
       </c>
       <c r="FG4">
-        <v>8.258214088303918</v>
+        <v>4.171729088121999</v>
+      </c>
+      <c r="FH4">
+        <v>6.755015528033115</v>
+      </c>
+      <c r="FI4">
+        <v>19.10873674722388</v>
+      </c>
+      <c r="FJ4">
+        <v>7.062819235968161</v>
+      </c>
+      <c r="FK4">
+        <v>12.42043208558597</v>
       </c>
       <c r="FL4">
-        <v>25.33444292833862</v>
-      </c>
-      <c r="FO4">
-        <v>23.32851144564108</v>
+        <v>9.01542433639726</v>
+      </c>
+      <c r="FM4">
+        <v>38.16088161799465</v>
+      </c>
+      <c r="FN4">
+        <v>19.68622004040905</v>
+      </c>
+      <c r="FP4">
+        <v>12.92415482816825</v>
       </c>
       <c r="FQ4">
-        <v>12.3743587651066</v>
+        <v>19.2609513567273</v>
       </c>
       <c r="FR4">
-        <v>18.19775085979828</v>
+        <v>10.82427427277965</v>
+      </c>
+      <c r="FS4">
+        <v>10.68865216950033</v>
+      </c>
+      <c r="FT4">
+        <v>17.39798757306479</v>
+      </c>
+      <c r="FU4">
+        <v>4.876886464477897</v>
+      </c>
+      <c r="FV4">
+        <v>10.16200712587238</v>
+      </c>
+      <c r="FW4">
+        <v>11.59627289430651</v>
+      </c>
+      <c r="FX4">
+        <v>7.902012181006212</v>
+      </c>
+      <c r="FY4">
+        <v>13.83324875751244</v>
+      </c>
+      <c r="FZ4">
+        <v>8.875810825535055</v>
+      </c>
+      <c r="GA4">
+        <v>4.223189360771321</v>
       </c>
       <c r="GB4">
-        <v>25.07827514258131</v>
+        <v>9.324037744255049</v>
+      </c>
+      <c r="GC4">
+        <v>4.458859594369478</v>
       </c>
       <c r="GD4">
-        <v>10.65713894344101</v>
+        <v>13.01528493403703</v>
+      </c>
+      <c r="GE4">
+        <v>11.85340335609135</v>
       </c>
       <c r="GG4">
-        <v>10.07754409053898</v>
+        <v>9.024590282186216</v>
+      </c>
+      <c r="GH4">
+        <v>12.68570635684959</v>
+      </c>
+      <c r="GI4">
+        <v>5.398169574794341</v>
       </c>
       <c r="GJ4">
-        <v>21.23687413919146</v>
+        <v>6.571120942628093</v>
+      </c>
+      <c r="GK4">
+        <v>3.7106367231025</v>
+      </c>
+      <c r="GL4">
+        <v>9.69995449472048</v>
+      </c>
+      <c r="GM4">
+        <v>20.29866534824283</v>
+      </c>
+      <c r="GN4">
+        <v>7.261983710834275</v>
+      </c>
+      <c r="GO4">
+        <v>8.233748678603757</v>
+      </c>
+      <c r="GP4">
+        <v>11.20816437362429</v>
+      </c>
+      <c r="GQ4">
+        <v>7.71972160351646</v>
+      </c>
+      <c r="GR4">
+        <v>9.240547172125952</v>
+      </c>
+      <c r="GS4">
+        <v>8.879012691393449</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -2212,304 +2665,538 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.687270979424604</v>
+        <v>5.787745941170646</v>
       </c>
       <c r="C5">
-        <v>5.764028890755623</v>
+        <v>6.547415356551248</v>
       </c>
       <c r="D5">
-        <v>5.957872192487893</v>
-      </c>
-      <c r="F5">
-        <v>5.92096046455881</v>
-      </c>
-      <c r="G5">
-        <v>5.990663108619533</v>
+        <v>4.517810068911967</v>
+      </c>
+      <c r="E5">
+        <v>4.829925294921773</v>
       </c>
       <c r="H5">
-        <v>5.421934963583165</v>
+        <v>12.71762117040367</v>
       </c>
       <c r="I5">
-        <v>9.476822486628333</v>
+        <v>4.915921192560305</v>
+      </c>
+      <c r="J5">
+        <v>5.238704227867496</v>
+      </c>
+      <c r="K5">
+        <v>5.135715874017539</v>
+      </c>
+      <c r="L5">
+        <v>5.984987993995119</v>
+      </c>
+      <c r="M5">
+        <v>4.40910772830549</v>
       </c>
       <c r="N5">
-        <v>7.243559748065249</v>
+        <v>4.574407928698935</v>
       </c>
       <c r="O5">
-        <v>7.121741346431072</v>
-      </c>
-      <c r="S5">
-        <v>9.225567977407056</v>
-      </c>
-      <c r="T5">
-        <v>4.253301603870604</v>
+        <v>9.258119976360735</v>
+      </c>
+      <c r="P5">
+        <v>5.830317547260668</v>
+      </c>
+      <c r="Q5">
+        <v>6.800981054634192</v>
+      </c>
+      <c r="R5">
+        <v>6.337970115703067</v>
+      </c>
+      <c r="U5">
+        <v>5.206052298465631</v>
       </c>
       <c r="V5">
-        <v>5.093266409710201</v>
+        <v>5.04258221567766</v>
       </c>
       <c r="W5">
-        <v>6.638711478162397</v>
-      </c>
-      <c r="X5">
-        <v>13.27356098958402</v>
-      </c>
-      <c r="Y5">
-        <v>5.022822978294113</v>
+        <v>6.207878674447947</v>
       </c>
       <c r="Z5">
-        <v>5.971202433622327</v>
-      </c>
-      <c r="AB5">
-        <v>3.415349204428425</v>
+        <v>4.5642585137884</v>
+      </c>
+      <c r="AA5">
+        <v>9.009077296326646</v>
       </c>
       <c r="AC5">
-        <v>4.589011478322535</v>
-      </c>
-      <c r="AD5">
-        <v>3.977868718442516</v>
-      </c>
-      <c r="AE5">
-        <v>6.683668821239051</v>
-      </c>
-      <c r="AH5">
-        <v>3.757668292169881</v>
+        <v>2.70279290091336</v>
+      </c>
+      <c r="AF5">
+        <v>6.407947637504785</v>
+      </c>
+      <c r="AG5">
+        <v>8.170731744423843</v>
       </c>
       <c r="AI5">
-        <v>5.164328790250452</v>
+        <v>4.824259001215663</v>
       </c>
       <c r="AJ5">
-        <v>6.95011205438799</v>
+        <v>5.39700395523753</v>
+      </c>
+      <c r="AK5">
+        <v>3.934877551057393</v>
       </c>
       <c r="AL5">
-        <v>4.041588665506517</v>
-      </c>
-      <c r="AO5">
-        <v>5.187424016805757</v>
+        <v>21.52906953178633</v>
+      </c>
+      <c r="AM5">
+        <v>4.909516525351515</v>
+      </c>
+      <c r="AN5">
+        <v>3.856674518800643</v>
       </c>
       <c r="AP5">
-        <v>7.896435058977938</v>
+        <v>5.231706963033527</v>
       </c>
       <c r="AQ5">
-        <v>21.10309401465656</v>
+        <v>4.360070377438658</v>
       </c>
       <c r="AR5">
-        <v>3.925058606611697</v>
+        <v>3.357257033369157</v>
       </c>
       <c r="AT5">
-        <v>11.51384313799161</v>
+        <v>3.546823979895632</v>
+      </c>
+      <c r="AU5">
+        <v>4.343613715404847</v>
       </c>
       <c r="AV5">
-        <v>5.681499540037769</v>
+        <v>3.544333159443601</v>
       </c>
       <c r="AW5">
-        <v>14.79335529948632</v>
+        <v>6.101041276194149</v>
       </c>
       <c r="AX5">
-        <v>6.041551404365346</v>
+        <v>2.215743766771152</v>
       </c>
       <c r="AY5">
-        <v>3.471815868956756</v>
+        <v>13.68664256582425</v>
       </c>
       <c r="AZ5">
-        <v>5.845537104289853</v>
+        <v>1.674764994813402</v>
       </c>
       <c r="BA5">
-        <v>5.549591053684058</v>
+        <v>13.88171392851254</v>
       </c>
       <c r="BB5">
-        <v>9.983771237632151</v>
+        <v>5.847635254418047</v>
       </c>
       <c r="BC5">
-        <v>6.122198736286016</v>
+        <v>7.11783995708732</v>
       </c>
       <c r="BD5">
-        <v>4.00900589374323</v>
+        <v>3.393699060454458</v>
       </c>
       <c r="BE5">
-        <v>5.883838190004935</v>
+        <v>2.916097631697664</v>
       </c>
       <c r="BF5">
-        <v>11.04962704133423</v>
+        <v>2.977319000165628</v>
+      </c>
+      <c r="BG5">
+        <v>1.323442317284484</v>
       </c>
       <c r="BH5">
-        <v>7.418829676716092</v>
+        <v>3.388969379556046</v>
       </c>
       <c r="BI5">
-        <v>3.631782309494616</v>
+        <v>3.246311244904085</v>
       </c>
       <c r="BJ5">
-        <v>4.857488371944628</v>
+        <v>7.037378943046015</v>
+      </c>
+      <c r="BK5">
+        <v>5.118623344589649</v>
       </c>
       <c r="BL5">
-        <v>5.967318184753662</v>
+        <v>4.624017008971625</v>
+      </c>
+      <c r="BM5">
+        <v>4.547260507232069</v>
+      </c>
+      <c r="BN5">
+        <v>7.126980180514205</v>
+      </c>
+      <c r="BO5">
+        <v>3.62945418240919</v>
       </c>
       <c r="BP5">
-        <v>10.10211174327833</v>
+        <v>2.843292893036359</v>
+      </c>
+      <c r="BQ5">
+        <v>2.912201176932929</v>
       </c>
       <c r="BR5">
-        <v>5.061584617189452</v>
+        <v>3.476013191164923</v>
       </c>
       <c r="BS5">
-        <v>9.365201666292164</v>
+        <v>5.051098706058571</v>
+      </c>
+      <c r="BT5">
+        <v>7.393736536280529</v>
       </c>
       <c r="BU5">
-        <v>5.506918305134196</v>
+        <v>6.402859478937335</v>
       </c>
       <c r="BV5">
-        <v>3.451210619790585</v>
+        <v>2.647064514697113</v>
+      </c>
+      <c r="BW5">
+        <v>4.017856063454862</v>
       </c>
       <c r="BX5">
-        <v>5.500360350160916</v>
+        <v>3.517834580425389</v>
       </c>
       <c r="BY5">
-        <v>9.677749637542776</v>
-      </c>
-      <c r="CA5">
-        <v>4.37328557140225</v>
+        <v>2.440833494742223</v>
+      </c>
+      <c r="BZ5">
+        <v>4.121877197292648</v>
+      </c>
+      <c r="CB5">
+        <v>5.14384745044292</v>
       </c>
       <c r="CC5">
-        <v>4.086970418891333</v>
+        <v>2.224530137311832</v>
       </c>
       <c r="CD5">
-        <v>6.813494755307882</v>
+        <v>3.432622738587772</v>
       </c>
       <c r="CE5">
-        <v>8.430626604453469</v>
+        <v>2.842238792813653</v>
+      </c>
+      <c r="CF5">
+        <v>3.607838045474614</v>
+      </c>
+      <c r="CG5">
+        <v>4.058665308927544</v>
       </c>
       <c r="CH5">
-        <v>3.390206247796758</v>
+        <v>2.682615738924301</v>
+      </c>
+      <c r="CI5">
+        <v>2.094230661393825</v>
       </c>
       <c r="CK5">
-        <v>6.406495713559727</v>
+        <v>5.821691082979056</v>
+      </c>
+      <c r="CL5">
+        <v>2.993803534004225</v>
       </c>
       <c r="CM5">
-        <v>7.810368237204597</v>
+        <v>2.933195559801726</v>
       </c>
       <c r="CN5">
-        <v>3.475296875776291</v>
+        <v>2.49445239868939</v>
+      </c>
+      <c r="CO5">
+        <v>6.108492248586854</v>
       </c>
       <c r="CP5">
-        <v>5.247725337468868</v>
+        <v>4.021335557026697</v>
+      </c>
+      <c r="CQ5">
+        <v>3.983461526562423</v>
+      </c>
+      <c r="CR5">
+        <v>2.244948294378779</v>
       </c>
       <c r="CS5">
-        <v>3.100384834591857</v>
+        <v>1.861593234330709</v>
+      </c>
+      <c r="CT5">
+        <v>2.381326001394025</v>
       </c>
       <c r="CU5">
-        <v>6.678711781878682</v>
+        <v>3.905414572444</v>
+      </c>
+      <c r="CV5">
+        <v>4.974623959394293</v>
       </c>
       <c r="CW5">
-        <v>3.43193452222115</v>
+        <v>5.403509388142588</v>
       </c>
       <c r="CX5">
-        <v>27.94827261398019</v>
+        <v>27.26125761011526</v>
+      </c>
+      <c r="CY5">
+        <v>6.144418289000518</v>
       </c>
       <c r="CZ5">
-        <v>10.76515547293734</v>
+        <v>5.126878494195081</v>
       </c>
       <c r="DA5">
-        <v>13.02161057545045</v>
+        <v>9.696884606081966</v>
       </c>
       <c r="DB5">
-        <v>17.80731936489687</v>
+        <v>11.59002533977607</v>
       </c>
       <c r="DD5">
-        <v>17.51831469766137</v>
+        <v>16.95253922490426</v>
       </c>
       <c r="DE5">
-        <v>17.98664118195706</v>
+        <v>5.196417297114668</v>
+      </c>
+      <c r="DF5">
+        <v>16.36614528154483</v>
       </c>
       <c r="DG5">
-        <v>13.53948655158143</v>
+        <v>16.9785820933431</v>
+      </c>
+      <c r="DH5">
+        <v>7.44116067475249</v>
       </c>
       <c r="DI5">
-        <v>13.88660175991086</v>
+        <v>12.56057713850005</v>
       </c>
       <c r="DJ5">
-        <v>17.31256410410369</v>
+        <v>11.09798015013496</v>
       </c>
       <c r="DK5">
-        <v>8.604798885267382</v>
+        <v>14.80820016295506</v>
       </c>
       <c r="DL5">
-        <v>14.59374436332556</v>
+        <v>15.72966199778372</v>
+      </c>
+      <c r="DM5">
+        <v>7.50640368911256</v>
+      </c>
+      <c r="DN5">
+        <v>12.77682675230054</v>
       </c>
       <c r="DO5">
-        <v>9.69516412400975</v>
+        <v>4.569234012536539</v>
+      </c>
+      <c r="DP5">
+        <v>6.95512891917959</v>
+      </c>
+      <c r="DQ5">
+        <v>12.11691807986178</v>
+      </c>
+      <c r="DR5">
+        <v>12.03253081474305</v>
       </c>
       <c r="DS5">
-        <v>14.68942956739212</v>
+        <v>12.36496102964354</v>
+      </c>
+      <c r="DT5">
+        <v>12.61228663509238</v>
       </c>
       <c r="DU5">
-        <v>17.8929890899062</v>
+        <v>17.04280844485659</v>
       </c>
       <c r="DV5">
-        <v>14.18813622874549</v>
+        <v>12.45926359754635</v>
+      </c>
+      <c r="DW5">
+        <v>12.03516451985706</v>
       </c>
       <c r="DX5">
-        <v>19.07567344339285</v>
+        <v>7.480413056447444</v>
+      </c>
+      <c r="DY5">
+        <v>5.511464298335998</v>
+      </c>
+      <c r="DZ5">
+        <v>10.87576116776278</v>
+      </c>
+      <c r="EB5">
+        <v>17.78215523497374</v>
+      </c>
+      <c r="EC5">
+        <v>9.71059885306952</v>
+      </c>
+      <c r="ED5">
+        <v>4.784162248984294</v>
+      </c>
+      <c r="EE5">
+        <v>11.99483455838274</v>
+      </c>
+      <c r="EF5">
+        <v>12.91626097382175</v>
+      </c>
+      <c r="EH5">
+        <v>9.479013578957064</v>
+      </c>
+      <c r="EI5">
+        <v>12.63938279774119</v>
+      </c>
+      <c r="EJ5">
+        <v>11.35992562626579</v>
+      </c>
+      <c r="EK5">
+        <v>6.848688039462974</v>
+      </c>
+      <c r="EL5">
+        <v>18.23399271774595</v>
       </c>
       <c r="EM5">
-        <v>32.42932886924378</v>
+        <v>22.4463052538538</v>
       </c>
       <c r="EN5">
-        <v>25.18537586726113</v>
+        <v>5.974544155038265</v>
       </c>
       <c r="EO5">
-        <v>28.97290232645446</v>
+        <v>4.208528871813701</v>
       </c>
       <c r="EP5">
-        <v>11.94627397626394</v>
+        <v>12.63902601184566</v>
       </c>
       <c r="EQ5">
-        <v>18.49695492255743</v>
-      </c>
-      <c r="ET5">
-        <v>12.71072958903997</v>
+        <v>4.421734672987134</v>
+      </c>
+      <c r="ER5">
+        <v>33.14437772392034</v>
+      </c>
+      <c r="EU5">
+        <v>6.278350552330357</v>
+      </c>
+      <c r="EV5">
+        <v>17.0594798537959</v>
+      </c>
+      <c r="EW5">
+        <v>15.55932485162937</v>
       </c>
       <c r="EX5">
-        <v>9.52736094960528</v>
+        <v>6.850428677295898</v>
       </c>
       <c r="EY5">
-        <v>22.2008449186094</v>
+        <v>13.95019961093662</v>
+      </c>
+      <c r="EZ5">
+        <v>16.57068398812157</v>
       </c>
       <c r="FA5">
-        <v>16.55062981560118</v>
+        <v>4.970700166819994</v>
+      </c>
+      <c r="FB5">
+        <v>12.15507248407493</v>
+      </c>
+      <c r="FC5">
+        <v>11.81789229796466</v>
+      </c>
+      <c r="FD5">
+        <v>5.019925228343721</v>
       </c>
       <c r="FE5">
-        <v>11.20835896543343</v>
+        <v>20.45092788576854</v>
+      </c>
+      <c r="FF5">
+        <v>11.52816143776621</v>
       </c>
       <c r="FG5">
-        <v>7.01992886105781</v>
+        <v>3.734682204807588</v>
+      </c>
+      <c r="FI5">
+        <v>16.70619688209087</v>
+      </c>
+      <c r="FJ5">
+        <v>5.651843963492574</v>
+      </c>
+      <c r="FK5">
+        <v>15.21806094010798</v>
       </c>
       <c r="FL5">
-        <v>19.7200782979729</v>
-      </c>
-      <c r="FO5">
-        <v>21.18048041598842</v>
+        <v>7.827138884995334</v>
+      </c>
+      <c r="FM5">
+        <v>33.33942997309273</v>
+      </c>
+      <c r="FN5">
+        <v>17.71417499192894</v>
+      </c>
+      <c r="FP5">
+        <v>9.882562372810032</v>
       </c>
       <c r="FQ5">
-        <v>10.6830526428052</v>
+        <v>12.96979532664401</v>
       </c>
       <c r="FR5">
-        <v>21.99143932857613</v>
+        <v>11.2578036632913</v>
+      </c>
+      <c r="FS5">
+        <v>8.99765354654205</v>
+      </c>
+      <c r="FT5">
+        <v>13.25538352356827</v>
+      </c>
+      <c r="FU5">
+        <v>5.28387990879918</v>
       </c>
       <c r="FV5">
-        <v>10.26682282461439</v>
+        <v>10.38584657071855</v>
+      </c>
+      <c r="FW5">
+        <v>10.65743722807696</v>
+      </c>
+      <c r="FX5">
+        <v>5.813181903476299</v>
       </c>
       <c r="FY5">
-        <v>14.48020369200723</v>
+        <v>16.10038275641778</v>
+      </c>
+      <c r="FZ5">
+        <v>7.139928899806925</v>
+      </c>
+      <c r="GA5">
+        <v>5.009952008790208</v>
+      </c>
+      <c r="GB5">
+        <v>14.78048971293493</v>
+      </c>
+      <c r="GC5">
+        <v>4.303653624846215</v>
       </c>
       <c r="GD5">
-        <v>12.45607481808447</v>
+        <v>12.01340403156509</v>
+      </c>
+      <c r="GE5">
+        <v>12.70492762694189</v>
       </c>
       <c r="GG5">
-        <v>9.069168613796922</v>
+        <v>10.56090514447631</v>
+      </c>
+      <c r="GH5">
+        <v>4.522747687628803</v>
+      </c>
+      <c r="GI5">
+        <v>6.96596920630454</v>
+      </c>
+      <c r="GJ5">
+        <v>8.183412272884951</v>
+      </c>
+      <c r="GK5">
+        <v>4.960185785925661</v>
       </c>
       <c r="GL5">
-        <v>20.97832853725949</v>
+        <v>12.38763704683741</v>
+      </c>
+      <c r="GM5">
+        <v>23.68214315357727</v>
+      </c>
+      <c r="GN5">
+        <v>19.03618586763342</v>
       </c>
       <c r="GO5">
-        <v>20.14026093349704</v>
+        <v>8.127585893690272</v>
+      </c>
+      <c r="GP5">
+        <v>5.041682692525457</v>
+      </c>
+      <c r="GQ5">
+        <v>3.3739310844742</v>
+      </c>
+      <c r="GR5">
+        <v>18.78285634262118</v>
+      </c>
+      <c r="GS5">
+        <v>10.94513101255771</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -2517,642 +3204,1128 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.941676716347839</v>
-      </c>
-      <c r="C6">
-        <v>6.757760524078623</v>
+        <v>6.809189652461156</v>
       </c>
       <c r="D6">
-        <v>8.854246335029046</v>
+        <v>6.224855537204644</v>
+      </c>
+      <c r="E6">
+        <v>4.973072149493529</v>
       </c>
       <c r="F6">
-        <v>6.411513490534044</v>
-      </c>
-      <c r="G6">
-        <v>11.62568308618854</v>
+        <v>5.842494195167022</v>
       </c>
       <c r="H6">
-        <v>6.356600556288706</v>
+        <v>11.01809882809301</v>
       </c>
       <c r="I6">
-        <v>11.18446545388801</v>
+        <v>7.740955487821198</v>
       </c>
       <c r="J6">
-        <v>5.726337350072969</v>
+        <v>5.935959057793672</v>
+      </c>
+      <c r="K6">
+        <v>5.632314456302198</v>
+      </c>
+      <c r="L6">
+        <v>6.576700037934905</v>
       </c>
       <c r="M6">
-        <v>6.589628955249738</v>
+        <v>4.545034330552777</v>
       </c>
       <c r="N6">
-        <v>10.99541621036552</v>
+        <v>5.834292399971722</v>
+      </c>
+      <c r="O6">
+        <v>10.8118902887373</v>
+      </c>
+      <c r="P6">
+        <v>5.323240471345942</v>
       </c>
       <c r="Q6">
-        <v>7.419542369193658</v>
-      </c>
-      <c r="S6">
-        <v>7.872277934025693</v>
-      </c>
-      <c r="T6">
-        <v>5.124311305493366</v>
+        <v>10.46276483376982</v>
+      </c>
+      <c r="V6">
+        <v>10.22381801093156</v>
       </c>
       <c r="W6">
-        <v>7.665240747269875</v>
-      </c>
-      <c r="X6">
-        <v>11.53548164225285</v>
+        <v>9.565643175657453</v>
       </c>
       <c r="Y6">
-        <v>5.651261683510077</v>
+        <v>12.85302788316094</v>
+      </c>
+      <c r="Z6">
+        <v>4.24796764978238</v>
       </c>
       <c r="AA6">
-        <v>11.78478280770548</v>
-      </c>
-      <c r="AB6">
-        <v>4.23989805285784</v>
+        <v>13.29924135029767</v>
       </c>
       <c r="AC6">
-        <v>4.549079296864916</v>
+        <v>1.61296028846759</v>
       </c>
       <c r="AD6">
-        <v>4.808438956853767</v>
+        <v>28.22396600136944</v>
       </c>
       <c r="AE6">
-        <v>8.107352579603059</v>
+        <v>11.51414140218306</v>
+      </c>
+      <c r="AF6">
+        <v>7.48943920945558</v>
       </c>
       <c r="AG6">
-        <v>6.560836182774039</v>
+        <v>16.64405968218864</v>
       </c>
       <c r="AH6">
-        <v>4.521867379445428</v>
+        <v>10.70687712090531</v>
+      </c>
+      <c r="AI6">
+        <v>5.669521573477653</v>
       </c>
       <c r="AJ6">
-        <v>9.813557000555894</v>
+        <v>5.951372982281069</v>
       </c>
       <c r="AK6">
-        <v>5.327483963898796</v>
+        <v>6.341675218057081</v>
+      </c>
+      <c r="AL6">
+        <v>25.50399568547278</v>
       </c>
       <c r="AM6">
-        <v>9.646772097474861</v>
+        <v>7.027536868040773</v>
       </c>
       <c r="AN6">
-        <v>32.93530412804662</v>
+        <v>5.555765106854359</v>
       </c>
       <c r="AO6">
-        <v>7.159670057258816</v>
+        <v>21.1351537753865</v>
       </c>
       <c r="AP6">
-        <v>9.170966600157911</v>
+        <v>4.714009640897094</v>
       </c>
       <c r="AQ6">
-        <v>23.41099163197581</v>
+        <v>5.1306862838664</v>
       </c>
       <c r="AR6">
-        <v>5.07933952046778</v>
+        <v>4.404265993303884</v>
+      </c>
+      <c r="AS6">
+        <v>8.231913763901538</v>
+      </c>
+      <c r="AT6">
+        <v>4.003959576857332</v>
+      </c>
+      <c r="AU6">
+        <v>4.090819199183384</v>
       </c>
       <c r="AV6">
-        <v>6.319065692514047</v>
+        <v>3.841355718158594</v>
       </c>
       <c r="AW6">
-        <v>11.53207010604703</v>
+        <v>13.62043737866454</v>
       </c>
       <c r="AX6">
-        <v>7.059880851852212</v>
+        <v>2.778333724705945</v>
+      </c>
+      <c r="AY6">
+        <v>19.84568444787232</v>
+      </c>
+      <c r="AZ6">
+        <v>1.474693307848973</v>
       </c>
       <c r="BA6">
-        <v>5.714519051494797</v>
+        <v>10.22236279414821</v>
       </c>
       <c r="BB6">
-        <v>9.288479648057541</v>
+        <v>6.724747381030975</v>
+      </c>
+      <c r="BC6">
+        <v>8.597350995971986</v>
       </c>
       <c r="BD6">
-        <v>4.55629151367449</v>
+        <v>2.514981917879939</v>
       </c>
       <c r="BE6">
-        <v>6.709539078954647</v>
+        <v>3.230666911594855</v>
       </c>
       <c r="BF6">
-        <v>11.24755519551222</v>
+        <v>3.945657504639541</v>
       </c>
       <c r="BG6">
-        <v>5.034495530228296</v>
+        <v>1.961188906106689</v>
+      </c>
+      <c r="BH6">
+        <v>2.937527992210669</v>
       </c>
       <c r="BI6">
-        <v>4.527262841348632</v>
+        <v>3.325189956657125</v>
       </c>
       <c r="BJ6">
-        <v>7.028867735367916</v>
+        <v>5.483588805280561</v>
+      </c>
+      <c r="BK6">
+        <v>5.71852871517298</v>
       </c>
       <c r="BL6">
-        <v>7.08504760920471</v>
+        <v>3.673433499856509</v>
+      </c>
+      <c r="BM6">
+        <v>4.926430168926561</v>
+      </c>
+      <c r="BN6">
+        <v>9.996463578247408</v>
       </c>
       <c r="BO6">
-        <v>4.358686184637484</v>
+        <v>3.510197888828328</v>
+      </c>
+      <c r="BP6">
+        <v>3.781076557119285</v>
+      </c>
+      <c r="BQ6">
+        <v>2.336340874890741</v>
       </c>
       <c r="BR6">
-        <v>5.428573269472486</v>
+        <v>3.169131375498168</v>
       </c>
       <c r="BS6">
-        <v>10.47481151498032</v>
+        <v>5.516020290196882</v>
+      </c>
+      <c r="BT6">
+        <v>6.926490521976739</v>
       </c>
       <c r="BU6">
-        <v>5.769391952617254</v>
+        <v>6.496443504739833</v>
       </c>
       <c r="BV6">
-        <v>3.841478254627082</v>
+        <v>3.328215363236362</v>
+      </c>
+      <c r="BW6">
+        <v>5.928210530517076</v>
       </c>
       <c r="BX6">
-        <v>5.427421444595492</v>
+        <v>3.071067020590435</v>
       </c>
       <c r="BY6">
-        <v>18.30649092285</v>
+        <v>3.558480473265549</v>
+      </c>
+      <c r="BZ6">
+        <v>4.599652937986145</v>
       </c>
       <c r="CA6">
-        <v>4.932022221262328</v>
+        <v>5.970348960194643</v>
+      </c>
+      <c r="CB6">
+        <v>6.831252970966711</v>
       </c>
       <c r="CC6">
-        <v>8.164498998572689</v>
+        <v>3.244946589430407</v>
       </c>
       <c r="CD6">
-        <v>5.291669357088568</v>
+        <v>2.982576733106806</v>
       </c>
       <c r="CE6">
-        <v>9.500808417333671</v>
+        <v>2.81031652596223</v>
       </c>
       <c r="CF6">
-        <v>4.482521019805866</v>
+        <v>4.543393496897149</v>
+      </c>
+      <c r="CG6">
+        <v>5.796882654138699</v>
       </c>
       <c r="CH6">
-        <v>5.812404686590831</v>
+        <v>3.673927731999064</v>
       </c>
       <c r="CI6">
-        <v>4.918805075073924</v>
+        <v>1.855303027764554</v>
       </c>
       <c r="CJ6">
-        <v>5.519250049007016</v>
+        <v>4.505520826228675</v>
       </c>
       <c r="CK6">
-        <v>8.761083338367344</v>
+        <v>6.16366308145305</v>
       </c>
       <c r="CL6">
-        <v>4.282575837096843</v>
+        <v>3.580163477881702</v>
       </c>
       <c r="CM6">
-        <v>6.493471599777035</v>
+        <v>3.201092664759417</v>
       </c>
       <c r="CN6">
-        <v>4.629731389893528</v>
+        <v>3.308468496354902</v>
+      </c>
+      <c r="CO6">
+        <v>5.304305581644679</v>
       </c>
       <c r="CP6">
-        <v>4.617441296430119</v>
+        <v>4.630791760871385</v>
       </c>
       <c r="CQ6">
-        <v>3.38801051084709</v>
+        <v>3.298802511618045</v>
+      </c>
+      <c r="CR6">
+        <v>2.634001884923009</v>
       </c>
       <c r="CS6">
-        <v>3.619878860954987</v>
+        <v>3.062766582758655</v>
       </c>
       <c r="CT6">
-        <v>3.403829320041522</v>
+        <v>3.296939992695243</v>
+      </c>
+      <c r="CU6">
+        <v>7.166043507951128</v>
+      </c>
+      <c r="CV6">
+        <v>4.210507998123491</v>
+      </c>
+      <c r="CW6">
+        <v>7.612416101721831</v>
       </c>
       <c r="CX6">
-        <v>25.86805299832653</v>
+        <v>25.1250161497939</v>
+      </c>
+      <c r="CY6">
+        <v>11.23114620109469</v>
+      </c>
+      <c r="CZ6">
+        <v>8.561636930783308</v>
       </c>
       <c r="DA6">
-        <v>16.36536910855016</v>
+        <v>10.70440041897811</v>
       </c>
       <c r="DB6">
-        <v>28.22989830913046</v>
+        <v>14.37509015738993</v>
       </c>
       <c r="DD6">
-        <v>19.65990443721695</v>
+        <v>27.05258818719493</v>
       </c>
       <c r="DE6">
-        <v>24.72634087332784</v>
+        <v>4.29663542609422</v>
+      </c>
+      <c r="DF6">
+        <v>17.91293365166447</v>
       </c>
       <c r="DG6">
-        <v>12.50670985745038</v>
+        <v>22.89678519127987</v>
+      </c>
+      <c r="DH6">
+        <v>10.88419999313688</v>
       </c>
       <c r="DI6">
-        <v>12.445323458817</v>
+        <v>10.37685144443182</v>
       </c>
       <c r="DJ6">
-        <v>21.48774789000658</v>
+        <v>10.1838540008278</v>
+      </c>
+      <c r="DK6">
+        <v>13.29451393563649</v>
       </c>
       <c r="DL6">
-        <v>18.89836633658592</v>
+        <v>20.13120927065842</v>
+      </c>
+      <c r="DM6">
+        <v>6.745885444626075</v>
+      </c>
+      <c r="DN6">
+        <v>16.49009730495519</v>
       </c>
       <c r="DO6">
-        <v>9.861386515434637</v>
+        <v>4.108116252202366</v>
+      </c>
+      <c r="DP6">
+        <v>6.168964839261205</v>
+      </c>
+      <c r="DQ6">
+        <v>14.24177980650886</v>
+      </c>
+      <c r="DR6">
+        <v>10.07036817880764</v>
       </c>
       <c r="DS6">
-        <v>17.95684185986288</v>
+        <v>15.84991288345542</v>
+      </c>
+      <c r="DT6">
+        <v>6.88274376015816</v>
       </c>
       <c r="DU6">
-        <v>18.11285471570669</v>
+        <v>17.13683474645028</v>
       </c>
       <c r="DV6">
-        <v>21.71288050542693</v>
+        <v>20.32196820050254</v>
       </c>
       <c r="DW6">
-        <v>16.9992102536316</v>
+        <v>13.26178133145332</v>
       </c>
       <c r="DX6">
-        <v>27.61323778425081</v>
+        <v>8.885798720116906</v>
+      </c>
+      <c r="DY6">
+        <v>6.822083910905606</v>
+      </c>
+      <c r="DZ6">
+        <v>11.3502087419692</v>
+      </c>
+      <c r="EB6">
+        <v>18.32433286916428</v>
+      </c>
+      <c r="EC6">
+        <v>9.870737505853077</v>
+      </c>
+      <c r="ED6">
+        <v>7.368892315998169</v>
+      </c>
+      <c r="EE6">
+        <v>11.13160763291542</v>
+      </c>
+      <c r="EF6">
+        <v>13.05263587283308</v>
+      </c>
+      <c r="EG6">
+        <v>10.33472730464348</v>
+      </c>
+      <c r="EH6">
+        <v>11.33094387110635</v>
+      </c>
+      <c r="EI6">
+        <v>16.70962111374888</v>
+      </c>
+      <c r="EJ6">
+        <v>15.55058268287009</v>
+      </c>
+      <c r="EK6">
+        <v>9.689588480937388</v>
+      </c>
+      <c r="EL6">
+        <v>25.22429057626407</v>
       </c>
       <c r="EM6">
-        <v>44.62580142273237</v>
+        <v>26.52025607850341</v>
       </c>
       <c r="EN6">
-        <v>23.96162462189578</v>
+        <v>7.211637228536832</v>
       </c>
       <c r="EO6">
-        <v>35.65833730908024</v>
+        <v>5.136426934922729</v>
       </c>
       <c r="EP6">
-        <v>12.40772625676778</v>
+        <v>19.22556297529984</v>
       </c>
       <c r="EQ6">
-        <v>19.17634592765697</v>
+        <v>4.248279350765515</v>
+      </c>
+      <c r="ER6">
+        <v>44.48551907021983</v>
+      </c>
+      <c r="ES6">
+        <v>10.36167680401411</v>
       </c>
       <c r="ET6">
-        <v>12.03693793972159</v>
+        <v>8.109784530318498</v>
+      </c>
+      <c r="EU6">
+        <v>6.319855463143073</v>
       </c>
       <c r="EV6">
-        <v>19.22878504203613</v>
+        <v>16.16207140806881</v>
+      </c>
+      <c r="EW6">
+        <v>7.351926278476936</v>
       </c>
       <c r="EX6">
-        <v>8.981826435197117</v>
+        <v>5.376166890973842</v>
+      </c>
+      <c r="EY6">
+        <v>15.73154869623648</v>
+      </c>
+      <c r="EZ6">
+        <v>20.5525630414224</v>
       </c>
       <c r="FA6">
-        <v>14.97638744866183</v>
+        <v>7.050419659977671</v>
+      </c>
+      <c r="FB6">
+        <v>9.330529688064033</v>
+      </c>
+      <c r="FC6">
+        <v>12.31016948681667</v>
+      </c>
+      <c r="FD6">
+        <v>4.729797810100718</v>
       </c>
       <c r="FE6">
-        <v>9.414607929852036</v>
+        <v>19.16291808230012</v>
       </c>
       <c r="FF6">
-        <v>23.0101664182463</v>
+        <v>14.68326518673993</v>
       </c>
       <c r="FG6">
-        <v>6.540421535745196</v>
+        <v>3.372229778775184</v>
+      </c>
+      <c r="FH6">
+        <v>6.157509948139967</v>
+      </c>
+      <c r="FI6">
+        <v>23.55266863869032</v>
+      </c>
+      <c r="FJ6">
+        <v>7.702928318946977</v>
+      </c>
+      <c r="FK6">
+        <v>14.19256603508788</v>
       </c>
       <c r="FL6">
-        <v>25.25980012862084</v>
+        <v>7.710456298730935</v>
+      </c>
+      <c r="FM6">
+        <v>34.85666319128323</v>
       </c>
       <c r="FN6">
-        <v>24.63281696118735</v>
+        <v>17.85022758899843</v>
       </c>
       <c r="FO6">
-        <v>22.03760692157367</v>
+        <v>7.12410518186614</v>
+      </c>
+      <c r="FP6">
+        <v>11.02567196546326</v>
       </c>
       <c r="FQ6">
-        <v>9.807660349006312</v>
+        <v>18.61872210008512</v>
       </c>
       <c r="FR6">
-        <v>16.94720660087624</v>
+        <v>10.24642695642413</v>
+      </c>
+      <c r="FS6">
+        <v>8.92199538969351</v>
+      </c>
+      <c r="FT6">
+        <v>16.24483545783038</v>
+      </c>
+      <c r="FU6">
+        <v>6.037333571615008</v>
       </c>
       <c r="FV6">
-        <v>10.27490398886272</v>
+        <v>8.383291305212724</v>
       </c>
       <c r="FW6">
-        <v>11.32175476521234</v>
+        <v>12.37814223386427</v>
+      </c>
+      <c r="FX6">
+        <v>6.002109818226623</v>
       </c>
       <c r="FY6">
-        <v>15.81812308789387</v>
+        <v>14.34100506631568</v>
+      </c>
+      <c r="FZ6">
+        <v>9.103213931694636</v>
+      </c>
+      <c r="GA6">
+        <v>4.935581271301029</v>
       </c>
       <c r="GB6">
-        <v>30.5325836027596</v>
+        <v>8.437597111623331</v>
       </c>
       <c r="GC6">
-        <v>29.93341329202038</v>
+        <v>7.009549683452565</v>
       </c>
       <c r="GD6">
-        <v>11.37805132825316</v>
+        <v>13.06188712303583</v>
+      </c>
+      <c r="GE6">
+        <v>12.4647086361903</v>
       </c>
       <c r="GG6">
-        <v>8.204378165145009</v>
+        <v>11.64444282529726</v>
+      </c>
+      <c r="GH6">
+        <v>5.443000044254013</v>
+      </c>
+      <c r="GI6">
+        <v>8.016508080662916</v>
       </c>
       <c r="GJ6">
-        <v>24.06789171586552</v>
+        <v>6.479005959754764</v>
+      </c>
+      <c r="GK6">
+        <v>4.471897152109912</v>
       </c>
       <c r="GL6">
-        <v>14.80231830388473</v>
+        <v>11.0712679186989</v>
+      </c>
+      <c r="GM6">
+        <v>15.81991459539997</v>
       </c>
       <c r="GN6">
-        <v>6.932247516584393</v>
+        <v>16.77698588593125</v>
       </c>
       <c r="GO6">
-        <v>17.97952944674699</v>
+        <v>7.137052640903903</v>
+      </c>
+      <c r="GP6">
+        <v>6.004100466782719</v>
+      </c>
+      <c r="GQ6">
+        <v>3.114225918332664</v>
+      </c>
+      <c r="GR6">
+        <v>15.73461125007549</v>
       </c>
     </row>
     <row r="7" spans="1:201">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.591607348978322</v>
-      </c>
       <c r="C7">
-        <v>6.470242296774563</v>
+        <v>8.051850380239275</v>
       </c>
       <c r="D7">
-        <v>6.223763426315196</v>
+        <v>5.181612397585058</v>
+      </c>
+      <c r="E7">
+        <v>5.318668305572588</v>
       </c>
       <c r="F7">
-        <v>6.785190707858198</v>
-      </c>
-      <c r="G7">
-        <v>8.234134387917431</v>
+        <v>4.170424421866039</v>
       </c>
       <c r="H7">
-        <v>6.641287767668221</v>
-      </c>
-      <c r="I7">
-        <v>8.269043401900634</v>
+        <v>9.337277362051839</v>
+      </c>
+      <c r="J7">
+        <v>5.39415586820825</v>
+      </c>
+      <c r="K7">
+        <v>5.495774427295447</v>
       </c>
       <c r="L7">
-        <v>4.12754329532275</v>
+        <v>5.643556692265111</v>
+      </c>
+      <c r="M7">
+        <v>4.926646617719319</v>
       </c>
       <c r="N7">
-        <v>6.158812267106771</v>
-      </c>
-      <c r="R7">
-        <v>5.445265941202099</v>
+        <v>5.977649745435081</v>
+      </c>
+      <c r="O7">
+        <v>7.725311417425107</v>
+      </c>
+      <c r="P7">
+        <v>5.224159593583176</v>
+      </c>
+      <c r="Q7">
+        <v>5.734032492646763</v>
       </c>
       <c r="T7">
-        <v>4.645203147663486</v>
+        <v>14.60943715557238</v>
+      </c>
+      <c r="U7">
+        <v>5.006635751869351</v>
       </c>
       <c r="V7">
-        <v>6.015331491460863</v>
-      </c>
-      <c r="X7">
-        <v>10.28966948174793</v>
+        <v>7.222116421619535</v>
+      </c>
+      <c r="W7">
+        <v>5.631600463005524</v>
       </c>
       <c r="Y7">
-        <v>6.180428387889238</v>
+        <v>8.55405369222574</v>
       </c>
       <c r="Z7">
-        <v>7.767573313553163</v>
+        <v>5.89530434020479</v>
       </c>
       <c r="AA7">
-        <v>7.216559209884306</v>
+        <v>6.265785234642266</v>
       </c>
       <c r="AC7">
-        <v>4.822467273779915</v>
-      </c>
-      <c r="AD7">
-        <v>4.854197380832563</v>
+        <v>3.017110471934129</v>
       </c>
       <c r="AE7">
-        <v>5.870851589210592</v>
+        <v>6.968969133571691</v>
+      </c>
+      <c r="AF7">
+        <v>6.481298813463954</v>
+      </c>
+      <c r="AG7">
+        <v>10.75000741063298</v>
       </c>
       <c r="AH7">
-        <v>4.331136570592065</v>
+        <v>6.711501925353675</v>
       </c>
       <c r="AI7">
-        <v>4.570966732670615</v>
+        <v>4.032730907878898</v>
       </c>
       <c r="AJ7">
-        <v>6.363982983153609</v>
+        <v>5.529634518572077</v>
       </c>
       <c r="AK7">
-        <v>6.181784939626811</v>
+        <v>3.672194702681104</v>
       </c>
       <c r="AL7">
-        <v>4.113708731043713</v>
+        <v>24.29565527693939</v>
       </c>
       <c r="AM7">
-        <v>7.354855817025514</v>
+        <v>7.157664292320007</v>
       </c>
       <c r="AO7">
-        <v>4.113889201541748</v>
+        <v>10.24086263263311</v>
       </c>
       <c r="AP7">
-        <v>7.232351296321806</v>
+        <v>5.103923883989377</v>
       </c>
       <c r="AQ7">
-        <v>23.23082914693011</v>
+        <v>5.876871981685447</v>
       </c>
       <c r="AR7">
-        <v>4.128431812412956</v>
+        <v>4.871746923277424</v>
+      </c>
+      <c r="AS7">
+        <v>6.659965352752604</v>
       </c>
       <c r="AT7">
-        <v>7.615203679276009</v>
+        <v>3.751816985782505</v>
+      </c>
+      <c r="AU7">
+        <v>4.178755867733081</v>
       </c>
       <c r="AV7">
-        <v>6.274557771225323</v>
+        <v>3.675064021681392</v>
       </c>
       <c r="AW7">
-        <v>11.91130787421452</v>
+        <v>12.59742401684641</v>
       </c>
       <c r="AX7">
-        <v>3.585255419619122</v>
+        <v>3.563558309251792</v>
+      </c>
+      <c r="AY7">
+        <v>14.42644340884219</v>
       </c>
       <c r="AZ7">
-        <v>5.932608087538462</v>
+        <v>1.883206052129472</v>
       </c>
       <c r="BA7">
-        <v>6.027850974596909</v>
+        <v>12.29302990992142</v>
       </c>
       <c r="BB7">
-        <v>7.452592852195545</v>
+        <v>5.991014027033689</v>
       </c>
       <c r="BC7">
-        <v>5.960627334320003</v>
+        <v>5.817495497356579</v>
+      </c>
+      <c r="BD7">
+        <v>4.111063712269624</v>
       </c>
       <c r="BE7">
-        <v>6.10295871045007</v>
+        <v>3.492315225845741</v>
       </c>
       <c r="BF7">
-        <v>8.830454258973404</v>
+        <v>3.18358335232786</v>
       </c>
       <c r="BG7">
-        <v>4.202807541859369</v>
+        <v>1.864641569869749</v>
+      </c>
+      <c r="BH7">
+        <v>2.772117356380873</v>
       </c>
       <c r="BI7">
-        <v>4.296441192018942</v>
+        <v>3.664082420965084</v>
       </c>
       <c r="BJ7">
-        <v>5.187944966019953</v>
+        <v>6.494282780645808</v>
+      </c>
+      <c r="BK7">
+        <v>3.745739343820186</v>
       </c>
       <c r="BL7">
-        <v>6.697394263214129</v>
+        <v>3.808364156922697</v>
       </c>
       <c r="BM7">
-        <v>5.237196743265308</v>
+        <v>2.889481429192907</v>
+      </c>
+      <c r="BN7">
+        <v>6.258276178342125</v>
+      </c>
+      <c r="BO7">
+        <v>4.028169523929357</v>
+      </c>
+      <c r="BP7">
+        <v>2.038364808629423</v>
+      </c>
+      <c r="BQ7">
+        <v>2.76595487001899</v>
       </c>
       <c r="BR7">
-        <v>5.468173865188588</v>
+        <v>3.198515853078871</v>
       </c>
       <c r="BS7">
-        <v>10.1493469362354</v>
+        <v>3.947756103456277</v>
       </c>
       <c r="BT7">
-        <v>5.550692318372649</v>
+        <v>6.281780232475835</v>
       </c>
       <c r="BU7">
-        <v>4.585142411121264</v>
+        <v>5.450560953970549</v>
       </c>
       <c r="BV7">
-        <v>4.174771486125403</v>
+        <v>2.723348004449613</v>
       </c>
       <c r="BW7">
-        <v>4.731149598197025</v>
+        <v>4.272095897637302</v>
       </c>
       <c r="BX7">
-        <v>5.028887620299249</v>
-      </c>
-      <c r="CA7">
-        <v>4.433391614895772</v>
+        <v>3.53488823402803</v>
+      </c>
+      <c r="BY7">
+        <v>2.710132235081244</v>
+      </c>
+      <c r="BZ7">
+        <v>5.155890419818167</v>
       </c>
       <c r="CB7">
-        <v>3.626526624833859</v>
+        <v>4.095066585709524</v>
       </c>
       <c r="CC7">
-        <v>6.88170790730897</v>
+        <v>1.880354796207314</v>
       </c>
       <c r="CD7">
-        <v>5.287358100721212</v>
+        <v>3.512386125512078</v>
       </c>
       <c r="CE7">
-        <v>7.455925607120505</v>
+        <v>3.306909480324733</v>
       </c>
       <c r="CF7">
-        <v>3.459695534406255</v>
+        <v>2.791094099685995</v>
       </c>
       <c r="CG7">
-        <v>4.075072142668326</v>
+        <v>4.25091147392101</v>
       </c>
       <c r="CH7">
-        <v>3.241240447122792</v>
-      </c>
-      <c r="CJ7">
-        <v>5.173990004308381</v>
+        <v>3.786168024325197</v>
+      </c>
+      <c r="CI7">
+        <v>1.53090650437525</v>
       </c>
       <c r="CK7">
-        <v>6.105736716062594</v>
+        <v>7.716764581401827</v>
+      </c>
+      <c r="CL7">
+        <v>3.31197071026556</v>
       </c>
       <c r="CM7">
-        <v>7.432964705835331</v>
+        <v>2.925712428100611</v>
       </c>
       <c r="CN7">
-        <v>4.553303457734478</v>
+        <v>2.784814438941325</v>
+      </c>
+      <c r="CO7">
+        <v>4.948257906939998</v>
       </c>
       <c r="CP7">
-        <v>5.861987308764362</v>
+        <v>4.903381862269526</v>
       </c>
       <c r="CQ7">
-        <v>3.07127298423048</v>
+        <v>2.877905514878972</v>
+      </c>
+      <c r="CR7">
+        <v>2.602242460357509</v>
       </c>
       <c r="CS7">
-        <v>3.411133423757775</v>
+        <v>2.490266771769778</v>
+      </c>
+      <c r="CT7">
+        <v>3.762825998152493</v>
+      </c>
+      <c r="CU7">
+        <v>3.729142908988857</v>
+      </c>
+      <c r="CV7">
+        <v>3.638033143951623</v>
       </c>
       <c r="CW7">
-        <v>3.778252561356298</v>
+        <v>9.337340159782052</v>
       </c>
       <c r="CX7">
-        <v>24.44205090775215</v>
+        <v>23.59118933747699</v>
+      </c>
+      <c r="CY7">
+        <v>4.190671556628926</v>
+      </c>
+      <c r="CZ7">
+        <v>5.195696485955872</v>
       </c>
       <c r="DA7">
-        <v>12.93375618427636</v>
+        <v>7.178266056064488</v>
       </c>
       <c r="DB7">
-        <v>25.3626241974269</v>
+        <v>10.82531249717764</v>
       </c>
       <c r="DD7">
-        <v>17.39280779015787</v>
+        <v>24.51874100902162</v>
       </c>
       <c r="DE7">
-        <v>20.08124650014035</v>
+        <v>8.675902001688264</v>
+      </c>
+      <c r="DF7">
+        <v>15.56685707390516</v>
       </c>
       <c r="DG7">
-        <v>13.40190233575708</v>
+        <v>18.94584977595164</v>
+      </c>
+      <c r="DH7">
+        <v>6.471767194798077</v>
       </c>
       <c r="DI7">
-        <v>12.37367267850432</v>
+        <v>10.79745801577776</v>
       </c>
       <c r="DJ7">
-        <v>15.49015804214294</v>
+        <v>11.3048898733673</v>
       </c>
       <c r="DK7">
-        <v>9.408925600298293</v>
+        <v>9.164456394426612</v>
       </c>
       <c r="DL7">
-        <v>13.77993775274674</v>
+        <v>13.09480223190573</v>
+      </c>
+      <c r="DM7">
+        <v>8.653275228430651</v>
+      </c>
+      <c r="DN7">
+        <v>10.73624439434762</v>
       </c>
       <c r="DO7">
-        <v>11.90548823215956</v>
+        <v>5.420872179439343</v>
+      </c>
+      <c r="DP7">
+        <v>7.317554968165988</v>
+      </c>
+      <c r="DQ7">
+        <v>9.791710132876844</v>
+      </c>
+      <c r="DR7">
+        <v>10.65755200285112</v>
       </c>
       <c r="DS7">
-        <v>15.8881984810527</v>
+        <v>13.3523635727741</v>
+      </c>
+      <c r="DT7">
+        <v>8.170112606369978</v>
       </c>
       <c r="DU7">
-        <v>17.1415840040722</v>
+        <v>15.78785118862214</v>
       </c>
       <c r="DV7">
-        <v>11.48370615214963</v>
+        <v>9.050924771034552</v>
+      </c>
+      <c r="DW7">
+        <v>11.72229115072298</v>
       </c>
       <c r="DX7">
-        <v>13.73714655958332</v>
+        <v>10.86669500346234</v>
+      </c>
+      <c r="DY7">
+        <v>7.432878767178833</v>
+      </c>
+      <c r="DZ7">
+        <v>8.965648307053176</v>
+      </c>
+      <c r="EA7">
+        <v>19.59242499228513</v>
+      </c>
+      <c r="EB7">
+        <v>14.92803391821952</v>
+      </c>
+      <c r="EC7">
+        <v>15.3831884524478</v>
+      </c>
+      <c r="ED7">
+        <v>6.119200227347305</v>
+      </c>
+      <c r="EE7">
+        <v>10.97479632462296</v>
+      </c>
+      <c r="EF7">
+        <v>10.27515980917343</v>
       </c>
       <c r="EG7">
-        <v>9.28718015950729</v>
+        <v>13.88488989111163</v>
+      </c>
+      <c r="EH7">
+        <v>11.03507847595241</v>
+      </c>
+      <c r="EI7">
+        <v>14.94671033096532</v>
+      </c>
+      <c r="EJ7">
+        <v>13.51187681586512</v>
+      </c>
+      <c r="EK7">
+        <v>9.452521217465083</v>
+      </c>
+      <c r="EL7">
+        <v>16.36139469359708</v>
       </c>
       <c r="EM7">
-        <v>26.33715619758649</v>
+        <v>13.23777847060283</v>
       </c>
       <c r="EN7">
-        <v>18.51127246163692</v>
+        <v>8.519401492245317</v>
       </c>
       <c r="EO7">
-        <v>20.73979415690375</v>
+        <v>3.652492490385097</v>
       </c>
       <c r="EP7">
-        <v>10.15343161937145</v>
+        <v>7.692562779736073</v>
       </c>
       <c r="EQ7">
-        <v>15.72424044885378</v>
+        <v>6.728313905553509</v>
+      </c>
+      <c r="ER7">
+        <v>25.32218079001373</v>
+      </c>
+      <c r="ES7">
+        <v>11.51091508248106</v>
       </c>
       <c r="ET7">
-        <v>11.96252283640513</v>
+        <v>10.0652923761257</v>
+      </c>
+      <c r="EU7">
+        <v>6.170973753543319</v>
+      </c>
+      <c r="EV7">
+        <v>13.25947903585334</v>
+      </c>
+      <c r="EW7">
+        <v>10.36968665572096</v>
       </c>
       <c r="EX7">
-        <v>10.21316787284864</v>
+        <v>5.423458856821214</v>
       </c>
       <c r="EY7">
-        <v>25.30048039697935</v>
+        <v>13.49094427798477</v>
+      </c>
+      <c r="EZ7">
+        <v>14.68263691009626</v>
+      </c>
+      <c r="FA7">
+        <v>6.63499745409086</v>
+      </c>
+      <c r="FB7">
+        <v>9.436315640832817</v>
+      </c>
+      <c r="FC7">
+        <v>10.01706470902081</v>
+      </c>
+      <c r="FD7">
+        <v>3.744115563409129</v>
       </c>
       <c r="FE7">
-        <v>10.66363357388387</v>
+        <v>17.8035610587028</v>
       </c>
       <c r="FF7">
-        <v>18.19025387919458</v>
+        <v>10.93863369082242</v>
       </c>
       <c r="FG7">
-        <v>7.50540681313928</v>
+        <v>2.792106808140662</v>
+      </c>
+      <c r="FH7">
+        <v>6.800031837242981</v>
+      </c>
+      <c r="FI7">
+        <v>17.49085787295485</v>
+      </c>
+      <c r="FJ7">
+        <v>6.222180074378408</v>
+      </c>
+      <c r="FK7">
+        <v>14.84070836081801</v>
       </c>
       <c r="FL7">
-        <v>14.02284425939676</v>
+        <v>6.000095253070411</v>
+      </c>
+      <c r="FM7">
+        <v>31.89075020318174</v>
       </c>
       <c r="FN7">
-        <v>17.56033056894484</v>
-      </c>
-      <c r="FO7">
-        <v>19.29935690307381</v>
+        <v>15.18958991814436</v>
+      </c>
+      <c r="FP7">
+        <v>12.04716032795076</v>
       </c>
       <c r="FQ7">
-        <v>11.23457962748143</v>
+        <v>16.83079369327877</v>
       </c>
       <c r="FR7">
-        <v>17.07312641291942</v>
+        <v>10.98102909990395</v>
+      </c>
+      <c r="FS7">
+        <v>9.314979607808578</v>
+      </c>
+      <c r="FT7">
+        <v>12.36614285269292</v>
+      </c>
+      <c r="FU7">
+        <v>4.487802062065595</v>
+      </c>
+      <c r="FV7">
+        <v>9.309813606448859</v>
+      </c>
+      <c r="FW7">
+        <v>9.249090934117586</v>
+      </c>
+      <c r="FX7">
+        <v>5.581771636693571</v>
+      </c>
+      <c r="FY7">
+        <v>14.13545834987398</v>
+      </c>
+      <c r="FZ7">
+        <v>8.571095020412557</v>
+      </c>
+      <c r="GA7">
+        <v>4.709405646817607</v>
       </c>
       <c r="GB7">
-        <v>29.81338898267949</v>
+        <v>9.042198342959177</v>
       </c>
       <c r="GC7">
-        <v>30.0920648752517</v>
+        <v>4.892126759675177</v>
       </c>
       <c r="GD7">
-        <v>8.475223246828431</v>
+        <v>12.69753332353259</v>
+      </c>
+      <c r="GE7">
+        <v>8.623871879011038</v>
+      </c>
+      <c r="GG7">
+        <v>10.07372497294962</v>
+      </c>
+      <c r="GH7">
+        <v>4.5130142697067</v>
+      </c>
+      <c r="GI7">
+        <v>6.86417261154571</v>
+      </c>
+      <c r="GJ7">
+        <v>8.322706007800653</v>
+      </c>
+      <c r="GK7">
+        <v>4.614307042470844</v>
+      </c>
+      <c r="GL7">
+        <v>8.789314800034141</v>
+      </c>
+      <c r="GM7">
+        <v>14.55707978365978</v>
+      </c>
+      <c r="GN7">
+        <v>11.32961634297363</v>
+      </c>
+      <c r="GO7">
+        <v>5.75995540324174</v>
+      </c>
+      <c r="GP7">
+        <v>4.515755956143008</v>
+      </c>
+      <c r="GQ7">
+        <v>3.240844297674672</v>
+      </c>
+      <c r="GR7">
+        <v>10.544084941627</v>
       </c>
     </row>
   </sheetData>
